--- a/REGULAR/OJT/NEW DONE/ZALDIVIA, MIRIAM F..xlsx
+++ b/REGULAR/OJT/NEW DONE/ZALDIVIA, MIRIAM F..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F72D8FB-2A7D-417B-A3BC-7FDFC5858E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="601" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="601" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="414">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1282,7 +1281,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2168,7 +2167,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2211,7 +2210,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2275,7 +2274,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2335,7 +2334,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2401,7 +2400,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2464,7 +2463,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2562,7 +2561,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2621,7 +2620,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2686,7 +2685,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2729,7 +2728,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2804,7 +2803,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2990,7 +2989,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3056,7 +3055,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3114,7 +3113,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3180,7 +3179,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3236,7 +3235,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3311,7 +3310,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3354,7 +3353,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3420,7 +3419,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3476,7 +3475,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3574,7 +3573,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3637,7 +3636,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3703,25 +3702,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K579" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K579" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3733,13 +3732,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3748,14 +3747,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4059,7 +4058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4069,7 +4068,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4077,34 +4076,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K579"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A483" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A531" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="F490" sqref="F490"/>
+      <selection pane="bottomLeft" activeCell="B543" sqref="B543"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4125,7 +4124,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4143,7 +4142,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4165,7 +4164,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4173,7 +4172,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4186,7 +4185,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -4203,7 +4202,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4238,7 +4237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4247,7 +4246,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>0.41499999999984993</v>
+        <v>1.6649999999998499</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4257,12 +4256,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>62.458999999999889</v>
+        <v>62.708999999999889</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -4284,7 +4283,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>34612</v>
       </c>
@@ -4304,7 +4303,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>34639</v>
       </c>
@@ -4324,7 +4323,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>34669</v>
@@ -4345,7 +4344,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>44</v>
       </c>
@@ -4363,7 +4362,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f>EDATE(A13,1)</f>
         <v>34700</v>
@@ -4384,7 +4383,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <f>EDATE(A15,1)</f>
         <v>34731</v>
@@ -4405,7 +4404,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <f t="shared" ref="A17:A26" si="0">EDATE(A16,1)</f>
         <v>34759</v>
@@ -4426,7 +4425,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>34790</v>
@@ -4447,7 +4446,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>34820</v>
@@ -4468,7 +4467,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>34851</v>
@@ -4489,7 +4488,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>34881</v>
@@ -4510,7 +4509,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>34912</v>
@@ -4537,7 +4536,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>34943</v>
@@ -4558,7 +4557,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>34973</v>
@@ -4579,7 +4578,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <f>EDATE(A24,1)</f>
         <v>35004</v>
@@ -4600,7 +4599,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>35034</v>
@@ -4625,7 +4624,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
         <v>48</v>
       </c>
@@ -4643,7 +4642,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f>EDATE(A26,1)</f>
         <v>35065</v>
@@ -4664,7 +4663,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f>EDATE(A28,1)</f>
         <v>35096</v>
@@ -4685,7 +4684,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" ref="A30:A40" si="1">EDATE(A29,1)</f>
         <v>35125</v>
@@ -4706,7 +4705,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>35156</v>
@@ -4727,7 +4726,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f t="shared" si="1"/>
         <v>35186</v>
@@ -4748,7 +4747,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>35217</v>
@@ -4769,7 +4768,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" si="1"/>
         <v>35247</v>
@@ -4790,7 +4789,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" si="1"/>
         <v>35278</v>
@@ -4817,7 +4816,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f>EDATE(A35,1)</f>
         <v>35309</v>
@@ -4844,7 +4843,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>58</v>
@@ -4866,7 +4865,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f>EDATE(A36,1)</f>
         <v>35339</v>
@@ -4887,7 +4886,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f t="shared" si="1"/>
         <v>35370</v>
@@ -4908,7 +4907,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" si="1"/>
         <v>35400</v>
@@ -4929,7 +4928,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
         <v>49</v>
       </c>
@@ -4947,7 +4946,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>35431</v>
@@ -4968,7 +4967,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f>EDATE(A42,1)</f>
         <v>35462</v>
@@ -4989,7 +4988,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f t="shared" ref="A44:A55" si="2">EDATE(A43,1)</f>
         <v>35490</v>
@@ -5010,7 +5009,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>35521</v>
@@ -5031,7 +5030,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f t="shared" si="2"/>
         <v>35551</v>
@@ -5052,7 +5051,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>35582</v>
@@ -5079,7 +5078,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>62</v>
@@ -5101,7 +5100,7 @@
         <v>35607</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f>EDATE(A47,1)</f>
         <v>35612</v>
@@ -5122,7 +5121,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f t="shared" si="2"/>
         <v>35643</v>
@@ -5143,7 +5142,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>35674</v>
@@ -5168,7 +5167,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>62</v>
@@ -5190,7 +5189,7 @@
         <v>35703</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f>EDATE(A51,1)</f>
         <v>35704</v>
@@ -5217,7 +5216,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f>EDATE(A53,1)</f>
         <v>35735</v>
@@ -5238,7 +5237,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="2"/>
         <v>35765</v>
@@ -5263,7 +5262,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>50</v>
       </c>
@@ -5281,7 +5280,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f>EDATE(A55,1)</f>
         <v>35796</v>
@@ -5302,7 +5301,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f>EDATE(A57,1)</f>
         <v>35827</v>
@@ -5329,7 +5328,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" ref="A59:A69" si="3">EDATE(A58,1)</f>
         <v>35855</v>
@@ -5350,7 +5349,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" si="3"/>
         <v>35886</v>
@@ -5371,7 +5370,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>35916</v>
@@ -5398,7 +5397,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <f t="shared" si="3"/>
         <v>35947</v>
@@ -5425,7 +5424,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f t="shared" si="3"/>
         <v>35977</v>
@@ -5446,7 +5445,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f t="shared" si="3"/>
         <v>36008</v>
@@ -5473,7 +5472,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>73</v>
@@ -5493,7 +5492,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f>EDATE(A64,1)</f>
         <v>36039</v>
@@ -5518,7 +5517,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f t="shared" si="3"/>
         <v>36069</v>
@@ -5543,7 +5542,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="3"/>
         <v>36100</v>
@@ -5568,7 +5567,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f t="shared" si="3"/>
         <v>36130</v>
@@ -5595,7 +5594,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>76</v>
@@ -5615,7 +5614,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>54</v>
@@ -5635,7 +5634,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
         <v>51</v>
       </c>
@@ -5653,7 +5652,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f>EDATE(A69,1)</f>
         <v>36161</v>
@@ -5680,7 +5679,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>62</v>
@@ -5702,7 +5701,7 @@
         <v>36189</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>81</v>
@@ -5722,7 +5721,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f>EDATE(A73,1)</f>
         <v>36192</v>
@@ -5743,7 +5742,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f t="shared" ref="A77:A90" si="4">EDATE(A76,1)</f>
         <v>36220</v>
@@ -5770,7 +5769,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f t="shared" si="4"/>
         <v>36251</v>
@@ -5797,7 +5796,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>85</v>
@@ -5817,7 +5816,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f>EDATE(A78,1)</f>
         <v>36281</v>
@@ -5842,7 +5841,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f>EDATE(A80,1)</f>
         <v>36312</v>
@@ -5869,7 +5868,7 @@
         <v>36313</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>87</v>
@@ -5889,7 +5888,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>87</v>
@@ -5909,7 +5908,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>90</v>
@@ -5931,7 +5930,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f>EDATE(A81,1)</f>
         <v>36342</v>
@@ -5952,7 +5951,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="4"/>
         <v>36373</v>
@@ -5973,7 +5972,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f t="shared" si="4"/>
         <v>36404</v>
@@ -6000,7 +5999,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>94</v>
@@ -6020,7 +6019,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f>EDATE(A87,1)</f>
         <v>36434</v>
@@ -6041,7 +6040,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" si="4"/>
         <v>36465</v>
@@ -6062,7 +6061,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f>EDATE(A90,1)</f>
         <v>36495</v>
@@ -6087,7 +6086,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
         <v>52</v>
       </c>
@@ -6105,7 +6104,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f>EDATE(A91,1)</f>
         <v>36526</v>
@@ -6126,7 +6125,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f>EDATE(A93,1)</f>
         <v>36557</v>
@@ -6147,7 +6146,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" ref="A95:A104" si="5">EDATE(A94,1)</f>
         <v>36586</v>
@@ -6168,7 +6167,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="5"/>
         <v>36617</v>
@@ -6189,7 +6188,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="5"/>
         <v>36647</v>
@@ -6210,7 +6209,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="5"/>
         <v>36678</v>
@@ -6231,7 +6230,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="5"/>
         <v>36708</v>
@@ -6258,7 +6257,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="5"/>
         <v>36739</v>
@@ -6285,7 +6284,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f t="shared" si="5"/>
         <v>36770</v>
@@ -6306,7 +6305,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f t="shared" si="5"/>
         <v>36800</v>
@@ -6327,7 +6326,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f t="shared" si="5"/>
         <v>36831</v>
@@ -6348,7 +6347,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="5"/>
         <v>36861</v>
@@ -6373,7 +6372,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="48" t="s">
         <v>53</v>
       </c>
@@ -6391,7 +6390,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f>EDATE(A104,1)</f>
         <v>36892</v>
@@ -6412,7 +6411,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f>EDATE(A106,1)</f>
         <v>36923</v>
@@ -6433,7 +6432,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" ref="A108:A117" si="6">EDATE(A107,1)</f>
         <v>36951</v>
@@ -6460,7 +6459,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" si="6"/>
         <v>36982</v>
@@ -6481,7 +6480,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="6"/>
         <v>37012</v>
@@ -6508,7 +6507,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="6"/>
         <v>37043</v>
@@ -6533,7 +6532,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" si="6"/>
         <v>37073</v>
@@ -6554,7 +6553,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="6"/>
         <v>37104</v>
@@ -6575,7 +6574,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f t="shared" si="6"/>
         <v>37135</v>
@@ -6596,7 +6595,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f t="shared" si="6"/>
         <v>37165</v>
@@ -6617,7 +6616,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" si="6"/>
         <v>37196</v>
@@ -6638,7 +6637,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="6"/>
         <v>37226</v>
@@ -6663,7 +6662,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="48" t="s">
         <v>100</v>
       </c>
@@ -6681,7 +6680,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>37257</v>
@@ -6702,7 +6701,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" ref="A120:A200" si="7">EDATE(A119,1)</f>
         <v>37288</v>
@@ -6723,7 +6722,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="7"/>
         <v>37316</v>
@@ -6744,7 +6743,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" si="7"/>
         <v>37347</v>
@@ -6765,7 +6764,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f t="shared" si="7"/>
         <v>37377</v>
@@ -6786,7 +6785,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" si="7"/>
         <v>37408</v>
@@ -6807,7 +6806,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" si="7"/>
         <v>37438</v>
@@ -6834,7 +6833,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f t="shared" si="7"/>
         <v>37469</v>
@@ -6855,7 +6854,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f t="shared" si="7"/>
         <v>37500</v>
@@ -6882,7 +6881,7 @@
         <v>37501</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f t="shared" si="7"/>
         <v>37530</v>
@@ -6909,7 +6908,7 @@
         <v>37537</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="7"/>
         <v>37561</v>
@@ -6930,7 +6929,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f t="shared" si="7"/>
         <v>37591</v>
@@ -6955,7 +6954,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="48" t="s">
         <v>102</v>
       </c>
@@ -6973,7 +6972,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f>EDATE(A130,1)</f>
         <v>37622</v>
@@ -6994,7 +6993,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f t="shared" si="7"/>
         <v>37653</v>
@@ -7015,7 +7014,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f t="shared" si="7"/>
         <v>37681</v>
@@ -7042,7 +7041,7 @@
         <v>37704</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f t="shared" si="7"/>
         <v>37712</v>
@@ -7069,7 +7068,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f t="shared" si="7"/>
         <v>37742</v>
@@ -7090,7 +7089,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f t="shared" si="7"/>
         <v>37773</v>
@@ -7111,7 +7110,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f t="shared" si="7"/>
         <v>37803</v>
@@ -7132,7 +7131,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" si="7"/>
         <v>37834</v>
@@ -7153,7 +7152,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f t="shared" si="7"/>
         <v>37865</v>
@@ -7180,7 +7179,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>106</v>
@@ -7202,7 +7201,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f>EDATE(A140,1)</f>
         <v>37895</v>
@@ -7223,7 +7222,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" si="7"/>
         <v>37926</v>
@@ -7244,7 +7243,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="7"/>
         <v>37956</v>
@@ -7265,7 +7264,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="48" t="s">
         <v>108</v>
       </c>
@@ -7283,7 +7282,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f>EDATE(A144,1)</f>
         <v>37987</v>
@@ -7306,7 +7305,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f t="shared" si="7"/>
         <v>38018</v>
@@ -7327,7 +7326,7 @@
       <c r="J147" s="12"/>
       <c r="K147" s="15"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" si="7"/>
         <v>38047</v>
@@ -7350,7 +7349,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" si="7"/>
         <v>38078</v>
@@ -7377,7 +7376,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f t="shared" si="7"/>
         <v>38108</v>
@@ -7404,7 +7403,7 @@
         <v>38131</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f t="shared" si="7"/>
         <v>38139</v>
@@ -7425,7 +7424,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f t="shared" si="7"/>
         <v>38169</v>
@@ -7452,7 +7451,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f t="shared" si="7"/>
         <v>38200</v>
@@ -7473,7 +7472,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f t="shared" si="7"/>
         <v>38231</v>
@@ -7500,7 +7499,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>62</v>
@@ -7522,7 +7521,7 @@
         <v>38246</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <f>EDATE(A154,1)</f>
         <v>38261</v>
@@ -7549,7 +7548,7 @@
         <v>38265</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>92</v>
@@ -7571,7 +7570,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>62</v>
@@ -7593,7 +7592,7 @@
         <v>38280</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f>EDATE(A156,1)</f>
         <v>38292</v>
@@ -7614,7 +7613,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f>EDATE(A159,1)</f>
         <v>38322</v>
@@ -7639,7 +7638,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="48" t="s">
         <v>112</v>
       </c>
@@ -7657,7 +7656,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f>EDATE(A160,1)</f>
         <v>38353</v>
@@ -7684,7 +7683,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <f t="shared" si="7"/>
         <v>38384</v>
@@ -7705,7 +7704,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <f t="shared" si="7"/>
         <v>38412</v>
@@ -7726,7 +7725,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f t="shared" si="7"/>
         <v>38443</v>
@@ -7753,7 +7752,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>87</v>
@@ -7773,7 +7772,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>68</v>
@@ -7795,7 +7794,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f>EDATE(A165,1)</f>
         <v>38473</v>
@@ -7822,7 +7821,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f t="shared" si="7"/>
         <v>38504</v>
@@ -7849,7 +7848,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <f t="shared" si="7"/>
         <v>38534</v>
@@ -7876,7 +7875,7 @@
         <v>38540</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f t="shared" si="7"/>
         <v>38565</v>
@@ -7903,7 +7902,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f t="shared" si="7"/>
         <v>38596</v>
@@ -7928,7 +7927,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <f t="shared" si="7"/>
         <v>38626</v>
@@ -7955,7 +7954,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>126</v>
@@ -7977,7 +7976,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f>EDATE(A173,1)</f>
         <v>38657</v>
@@ -7998,7 +7997,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f>EDATE(A175,1)</f>
         <v>38687</v>
@@ -8019,7 +8018,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="48" t="s">
         <v>128</v>
       </c>
@@ -8037,7 +8036,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f>EDATE(A176,1)</f>
         <v>38718</v>
@@ -8064,7 +8063,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>70</v>
@@ -8086,7 +8085,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>68</v>
@@ -8108,7 +8107,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f>EDATE(A178,1)</f>
         <v>38749</v>
@@ -8129,7 +8128,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f t="shared" si="7"/>
         <v>38777</v>
@@ -8156,7 +8155,7 @@
         <v>38779</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f t="shared" si="7"/>
         <v>38808</v>
@@ -8183,7 +8182,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f t="shared" si="7"/>
         <v>38838</v>
@@ -8210,7 +8209,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>87</v>
@@ -8230,7 +8229,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f>EDATE(A184,1)</f>
         <v>38869</v>
@@ -8251,7 +8250,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f t="shared" si="7"/>
         <v>38899</v>
@@ -8278,7 +8277,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f t="shared" si="7"/>
         <v>38930</v>
@@ -8299,7 +8298,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f t="shared" si="7"/>
         <v>38961</v>
@@ -8326,7 +8325,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f t="shared" si="7"/>
         <v>38991</v>
@@ -8353,7 +8352,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>68</v>
@@ -8375,7 +8374,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>403</v>
@@ -8397,7 +8396,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f>EDATE(A190,1)</f>
         <v>39022</v>
@@ -8424,7 +8423,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f t="shared" si="7"/>
         <v>39052</v>
@@ -8449,7 +8448,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>92</v>
@@ -8471,7 +8470,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>58</v>
@@ -8493,7 +8492,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="48" t="s">
         <v>145</v>
       </c>
@@ -8511,7 +8510,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f>EDATE(A194,1)</f>
         <v>39083</v>
@@ -8532,7 +8531,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <f t="shared" si="7"/>
         <v>39114</v>
@@ -8553,7 +8552,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f t="shared" si="7"/>
         <v>39142</v>
@@ -8580,7 +8579,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f>EDATE(A200,1)</f>
         <v>39173</v>
@@ -8607,7 +8606,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>62</v>
@@ -8629,7 +8628,7 @@
         <v>39185</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>148</v>
@@ -8651,7 +8650,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>87</v>
@@ -8671,7 +8670,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>104</v>
@@ -8693,7 +8692,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>62</v>
@@ -8715,7 +8714,7 @@
         <v>39202</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f>EDATE(A201,1)</f>
         <v>39203</v>
@@ -8736,7 +8735,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f t="shared" ref="A208:A352" si="8">EDATE(A207,1)</f>
         <v>39234</v>
@@ -8757,7 +8756,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f t="shared" si="8"/>
         <v>39264</v>
@@ -8784,7 +8783,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f t="shared" si="8"/>
         <v>39295</v>
@@ -8809,7 +8808,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>62</v>
@@ -8831,7 +8830,7 @@
         <v>39304</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f>EDATE(A210,1)</f>
         <v>39326</v>
@@ -8852,7 +8851,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" si="8"/>
         <v>39356</v>
@@ -8873,7 +8872,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f t="shared" si="8"/>
         <v>39387</v>
@@ -8900,7 +8899,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>62</v>
@@ -8922,7 +8921,7 @@
         <v>39402</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>155</v>
@@ -8942,7 +8941,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f>EDATE(A214,1)</f>
         <v>39417</v>
@@ -8969,7 +8968,7 @@
         <v>39420</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>47</v>
@@ -8991,7 +8990,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="48" t="s">
         <v>158</v>
       </c>
@@ -9009,7 +9008,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="51"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f>EDATE(A217,1)</f>
         <v>39448</v>
@@ -9036,7 +9035,7 @@
         <v>39455</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>62</v>
@@ -9058,7 +9057,7 @@
         <v>39477</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f>EDATE(A220,1)</f>
         <v>39479</v>
@@ -9083,7 +9082,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f t="shared" si="8"/>
         <v>39508</v>
@@ -9104,7 +9103,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f t="shared" si="8"/>
         <v>39539</v>
@@ -9131,7 +9130,7 @@
         <v>39549</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>87</v>
@@ -9151,7 +9150,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f>EDATE(A224,1)</f>
         <v>39569</v>
@@ -9172,7 +9171,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f t="shared" si="8"/>
         <v>39600</v>
@@ -9193,7 +9192,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f t="shared" si="8"/>
         <v>39630</v>
@@ -9220,7 +9219,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>92</v>
@@ -9242,7 +9241,7 @@
         <v>39657</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>39661</v>
@@ -9263,7 +9262,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f t="shared" si="8"/>
         <v>39692</v>
@@ -9290,7 +9289,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f t="shared" si="8"/>
         <v>39722</v>
@@ -9317,7 +9316,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>92</v>
@@ -9339,7 +9338,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f>EDATE(A232,1)</f>
         <v>39753</v>
@@ -9366,7 +9365,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>54</v>
@@ -9388,7 +9387,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f>EDATE(A234,1)</f>
         <v>39783</v>
@@ -9413,7 +9412,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>168</v>
@@ -9433,7 +9432,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>126</v>
@@ -9453,7 +9452,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="48" t="s">
         <v>169</v>
       </c>
@@ -9471,7 +9470,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f>EDATE(A236,1)</f>
         <v>39814</v>
@@ -9498,7 +9497,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>62</v>
@@ -9520,7 +9519,7 @@
         <v>39839</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>172</v>
@@ -9538,7 +9537,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f>EDATE(A240,1)</f>
         <v>39845</v>
@@ -9563,7 +9562,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>87</v>
@@ -9583,7 +9582,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f>EDATE(A243,1)</f>
         <v>39873</v>
@@ -9610,7 +9609,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>62</v>
@@ -9632,7 +9631,7 @@
         <v>39886</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>68</v>
@@ -9654,7 +9653,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>62</v>
@@ -9676,7 +9675,7 @@
         <v>39899</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>62</v>
@@ -9698,7 +9697,7 @@
         <v>39890</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>175</v>
@@ -9718,7 +9717,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f>EDATE(A245,1)</f>
         <v>39904</v>
@@ -9743,7 +9742,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f t="shared" si="8"/>
         <v>39934</v>
@@ -9770,7 +9769,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>62</v>
@@ -9790,7 +9789,7 @@
         <v>39955</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>62</v>
@@ -9810,7 +9809,7 @@
         <v>39960</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>180</v>
@@ -9830,7 +9829,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f>EDATE(A252,1)</f>
         <v>39965</v>
@@ -9857,7 +9856,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>181</v>
@@ -9877,7 +9876,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f>EDATE(A256,1)</f>
         <v>39995</v>
@@ -9902,7 +9901,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f t="shared" si="8"/>
         <v>40026</v>
@@ -9929,7 +9928,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>62</v>
@@ -9951,7 +9950,7 @@
         <v>40042</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>62</v>
@@ -9973,7 +9972,7 @@
         <v>40051</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>62</v>
@@ -9995,7 +9994,7 @@
         <v>40057</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>185</v>
@@ -10015,7 +10014,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="51"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f>EDATE(A259,1)</f>
         <v>40057</v>
@@ -10042,7 +10041,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>62</v>
@@ -10064,7 +10063,7 @@
         <v>40081</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>187</v>
@@ -10084,7 +10083,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f>EDATE(A264,1)</f>
         <v>40087</v>
@@ -10111,7 +10110,7 @@
         <v>40087</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>62</v>
@@ -10133,7 +10132,7 @@
         <v>40093</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>68</v>
@@ -10155,7 +10154,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>92</v>
@@ -10177,7 +10176,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>188</v>
@@ -10197,7 +10196,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f>EDATE(A267,1)</f>
         <v>40118</v>
@@ -10224,7 +10223,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>191</v>
@@ -10244,7 +10243,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>40148</v>
@@ -10271,7 +10270,7 @@
         <v>40151</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>68</v>
@@ -10290,7 +10289,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>87</v>
@@ -10307,7 +10306,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>106</v>
@@ -10326,7 +10325,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="48" t="s">
         <v>193</v>
       </c>
@@ -10341,7 +10340,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f>EDATE(A274,1)</f>
         <v>40179</v>
@@ -10366,7 +10365,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>104</v>
@@ -10385,7 +10384,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>92</v>
@@ -10404,7 +10403,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>68</v>
@@ -10423,7 +10422,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>92</v>
@@ -10442,7 +10441,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>87</v>
@@ -10459,7 +10458,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>199</v>
@@ -10476,7 +10475,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f>EDATE(A279,1)</f>
         <v>40210</v>
@@ -10501,7 +10500,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>62</v>
@@ -10520,7 +10519,7 @@
         <v>40224</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>205</v>
@@ -10537,7 +10536,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f>EDATE(A286,1)</f>
         <v>40238</v>
@@ -10564,7 +10563,7 @@
         <v>40249</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>62</v>
@@ -10583,7 +10582,7 @@
         <v>40254</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>104</v>
@@ -10605,7 +10604,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>207</v>
@@ -10622,7 +10621,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f>EDATE(A289,1)</f>
         <v>40269</v>
@@ -10647,7 +10646,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>87</v>
@@ -10664,7 +10663,7 @@
         <v>40296</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>68</v>
@@ -10681,7 +10680,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>208</v>
@@ -10698,7 +10697,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <f>EDATE(A293,1)</f>
         <v>40299</v>
@@ -10725,7 +10724,7 @@
         <v>40322</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>211</v>
@@ -10745,7 +10744,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f>EDATE(A297,1)</f>
         <v>40330</v>
@@ -10772,7 +10771,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>62</v>
@@ -10794,7 +10793,7 @@
         <v>40345</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>62</v>
@@ -10816,7 +10815,7 @@
         <v>40353</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>213</v>
@@ -10836,7 +10835,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="51"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f>EDATE(A299,1)</f>
         <v>40360</v>
@@ -10863,7 +10862,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>92</v>
@@ -10885,7 +10884,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>216</v>
@@ -10905,7 +10904,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f>EDATE(A303,1)</f>
         <v>40391</v>
@@ -10932,7 +10931,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>62</v>
@@ -10951,7 +10950,7 @@
         <v>40414</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>218</v>
@@ -10968,7 +10967,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f>EDATE(A306,1)</f>
         <v>40422</v>
@@ -10997,7 +10996,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>220</v>
@@ -11016,7 +11015,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>222</v>
@@ -11033,7 +11032,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f>EDATE(A309,1)</f>
         <v>40452</v>
@@ -11062,7 +11061,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>220</v>
@@ -11081,7 +11080,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>226</v>
@@ -11098,7 +11097,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f>EDATE(A312,1)</f>
         <v>40483</v>
@@ -11127,7 +11126,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>220</v>
@@ -11146,7 +11145,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>229</v>
@@ -11163,7 +11162,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f>EDATE(A315,1)</f>
         <v>40513</v>
@@ -11188,7 +11187,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="48" t="s">
         <v>231</v>
       </c>
@@ -11206,7 +11205,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f>EDATE(A318,1)</f>
         <v>40544</v>
@@ -11231,7 +11230,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>234</v>
@@ -11251,7 +11250,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f>EDATE(A320,1)</f>
         <v>40575</v>
@@ -11276,7 +11275,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>236</v>
@@ -11296,7 +11295,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <f>EDATE(A322,1)</f>
         <v>40603</v>
@@ -11321,7 +11320,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f t="shared" si="8"/>
         <v>40634</v>
@@ -11346,7 +11345,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <f t="shared" si="8"/>
         <v>40664</v>
@@ -11371,7 +11370,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f>EDATE(A326,1)</f>
         <v>40695</v>
@@ -11398,7 +11397,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>240</v>
@@ -11418,7 +11417,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f>EDATE(A327,1)</f>
         <v>40725</v>
@@ -11443,7 +11442,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f t="shared" si="8"/>
         <v>40756</v>
@@ -11468,7 +11467,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f t="shared" si="8"/>
         <v>40787</v>
@@ -11493,7 +11492,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f t="shared" si="8"/>
         <v>40817</v>
@@ -11518,7 +11517,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f t="shared" si="8"/>
         <v>40848</v>
@@ -11545,7 +11544,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>247</v>
@@ -11565,7 +11564,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f>EDATE(A333,1)</f>
         <v>40878</v>
@@ -11590,7 +11589,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="48" t="s">
         <v>249</v>
       </c>
@@ -11608,7 +11607,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f>EDATE(A335,1)</f>
         <v>40909</v>
@@ -11635,7 +11634,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>250</v>
@@ -11652,7 +11651,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>251</v>
@@ -11669,7 +11668,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <f>EDATE(A337,1)</f>
         <v>40940</v>
@@ -11694,7 +11693,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f t="shared" si="8"/>
         <v>40969</v>
@@ -11719,7 +11718,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f t="shared" si="8"/>
         <v>41000</v>
@@ -11744,7 +11743,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f t="shared" si="8"/>
         <v>41030</v>
@@ -11771,7 +11770,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>92</v>
@@ -11790,7 +11789,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>254</v>
@@ -11807,7 +11806,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f>EDATE(A343,1)</f>
         <v>41061</v>
@@ -11832,7 +11831,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <f t="shared" si="8"/>
         <v>41091</v>
@@ -11859,7 +11858,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>141</v>
@@ -11876,7 +11875,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>92</v>
@@ -11895,7 +11894,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>263</v>
@@ -11912,7 +11911,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <f>EDATE(A347,1)</f>
         <v>41122</v>
@@ -11937,7 +11936,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <f t="shared" si="8"/>
         <v>41153</v>
@@ -11962,7 +11961,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>266</v>
@@ -11982,7 +11981,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f>EDATE(A352,1)</f>
         <v>41183</v>
@@ -12007,7 +12006,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <f t="shared" ref="A355:A356" si="9">EDATE(A354,1)</f>
         <v>41214</v>
@@ -12028,7 +12027,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f t="shared" si="9"/>
         <v>41244</v>
@@ -12053,7 +12052,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="48" t="s">
         <v>269</v>
       </c>
@@ -12071,7 +12070,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <f>EDATE(A356,1)</f>
         <v>41275</v>
@@ -12096,7 +12095,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <f t="shared" ref="A359:A431" si="10">EDATE(A358,1)</f>
         <v>41306</v>
@@ -12121,7 +12120,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>68</v>
@@ -12143,7 +12142,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>92</v>
@@ -12165,7 +12164,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>274</v>
@@ -12185,7 +12184,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f>EDATE(A359,1)</f>
         <v>41334</v>
@@ -12210,7 +12209,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <f t="shared" si="10"/>
         <v>41365</v>
@@ -12237,7 +12236,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>278</v>
@@ -12257,7 +12256,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <f>EDATE(A364,1)</f>
         <v>41395</v>
@@ -12280,7 +12279,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>279</v>
@@ -12300,7 +12299,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <f>EDATE(A366,1)</f>
         <v>41426</v>
@@ -12327,7 +12326,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>281</v>
@@ -12347,7 +12346,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <f>EDATE(A368,1)</f>
         <v>41456</v>
@@ -12372,7 +12371,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <f t="shared" si="10"/>
         <v>41487</v>
@@ -12397,7 +12396,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f t="shared" si="10"/>
         <v>41518</v>
@@ -12422,7 +12421,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <f t="shared" si="10"/>
         <v>41548</v>
@@ -12447,7 +12446,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f t="shared" si="10"/>
         <v>41579</v>
@@ -12472,7 +12471,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <f t="shared" si="10"/>
         <v>41609</v>
@@ -12497,7 +12496,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="48" t="s">
         <v>282</v>
       </c>
@@ -12515,7 +12514,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f>EDATE(A375,1)</f>
         <v>41640</v>
@@ -12540,7 +12539,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <f t="shared" si="10"/>
         <v>41671</v>
@@ -12565,7 +12564,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <f t="shared" si="10"/>
         <v>41699</v>
@@ -12590,7 +12589,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <f t="shared" si="10"/>
         <v>41730</v>
@@ -12615,7 +12614,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <f t="shared" si="10"/>
         <v>41760</v>
@@ -12640,7 +12639,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <f t="shared" si="10"/>
         <v>41791</v>
@@ -12665,7 +12664,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <f t="shared" si="10"/>
         <v>41821</v>
@@ -12690,7 +12689,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <f t="shared" si="10"/>
         <v>41852</v>
@@ -12715,7 +12714,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <f t="shared" si="10"/>
         <v>41883</v>
@@ -12740,7 +12739,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <f t="shared" si="10"/>
         <v>41913</v>
@@ -12765,7 +12764,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f t="shared" si="10"/>
         <v>41944</v>
@@ -12790,7 +12789,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <f t="shared" si="10"/>
         <v>41974</v>
@@ -12815,7 +12814,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>304</v>
@@ -12837,7 +12836,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="48" t="s">
         <v>294</v>
       </c>
@@ -12855,7 +12854,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f>EDATE(A388,1)</f>
         <v>42005</v>
@@ -12880,7 +12879,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>62</v>
@@ -12902,7 +12901,7 @@
         <v>42019</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <f>EDATE(A391,1)</f>
         <v>42036</v>
@@ -12927,7 +12926,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>68</v>
@@ -12949,7 +12948,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f>EDATE(A393,1)</f>
         <v>42064</v>
@@ -12974,7 +12973,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <f t="shared" si="10"/>
         <v>42095</v>
@@ -12999,7 +12998,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>68</v>
@@ -13021,7 +13020,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <f>EDATE(A396,1)</f>
         <v>42125</v>
@@ -13046,7 +13045,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>75</v>
@@ -13068,7 +13067,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f>EDATE(A398,1)</f>
         <v>42156</v>
@@ -13093,7 +13092,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>104</v>
@@ -13115,7 +13114,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f>EDATE(A400,1)</f>
         <v>42186</v>
@@ -13140,7 +13139,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <f t="shared" si="10"/>
         <v>42217</v>
@@ -13165,7 +13164,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>45</v>
@@ -13187,7 +13186,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f>EDATE(A403,1)</f>
         <v>42248</v>
@@ -13212,7 +13211,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>320</v>
@@ -13234,7 +13233,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f>EDATE(A405,1)</f>
         <v>42278</v>
@@ -13259,7 +13258,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>62</v>
@@ -13281,7 +13280,7 @@
         <v>42311</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <f>EDATE(A407,1)</f>
         <v>42309</v>
@@ -13306,7 +13305,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>324</v>
@@ -13328,7 +13327,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <f>EDATE(A409,1)</f>
         <v>42339</v>
@@ -13353,7 +13352,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="48" t="s">
         <v>302</v>
       </c>
@@ -13371,7 +13370,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <f>EDATE(A411,1)</f>
         <v>42370</v>
@@ -13396,7 +13395,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>75</v>
@@ -13418,7 +13417,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <f>EDATE(A413,1)</f>
         <v>42401</v>
@@ -13443,7 +13442,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>92</v>
@@ -13465,7 +13464,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>62</v>
@@ -13487,7 +13486,7 @@
         <v>42418</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <f>EDATE(A415,1)</f>
         <v>42430</v>
@@ -13512,7 +13511,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <f>EDATE(A418,1)</f>
         <v>42461</v>
@@ -13537,7 +13536,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <f t="shared" si="10"/>
         <v>42491</v>
@@ -13562,7 +13561,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f t="shared" si="10"/>
         <v>42522</v>
@@ -13587,7 +13586,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <f t="shared" si="10"/>
         <v>42552</v>
@@ -13612,7 +13611,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <f t="shared" si="10"/>
         <v>42583</v>
@@ -13637,7 +13636,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>337</v>
@@ -13657,7 +13656,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f>EDATE(A423,1)</f>
         <v>42614</v>
@@ -13682,7 +13681,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <f t="shared" si="10"/>
         <v>42644</v>
@@ -13709,7 +13708,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>62</v>
@@ -13731,7 +13730,7 @@
         <v>42654</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>68</v>
@@ -13753,7 +13752,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>341</v>
@@ -13773,7 +13772,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <f>EDATE(A426,1)</f>
         <v>42675</v>
@@ -13798,7 +13797,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <f t="shared" si="10"/>
         <v>42705</v>
@@ -13823,7 +13822,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="48" t="s">
         <v>303</v>
       </c>
@@ -13841,7 +13840,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f>EDATE(A431,1)</f>
         <v>42736</v>
@@ -13862,7 +13861,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <f>EDATE(A433,1)</f>
         <v>42767</v>
@@ -13887,7 +13886,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <f t="shared" ref="A435:A452" si="11">EDATE(A434,1)</f>
         <v>42795</v>
@@ -13912,7 +13911,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <f t="shared" si="11"/>
         <v>42826</v>
@@ -13939,7 +13938,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>87</v>
@@ -13956,7 +13955,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>92</v>
@@ -13975,7 +13974,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>141</v>
@@ -13992,7 +13991,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>350</v>
@@ -14009,7 +14008,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <f>EDATE(A436,1)</f>
         <v>42856</v>
@@ -14034,7 +14033,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <f t="shared" si="11"/>
         <v>42887</v>
@@ -14061,7 +14060,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>62</v>
@@ -14080,7 +14079,7 @@
         <v>42916</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>353</v>
@@ -14097,7 +14096,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <f>EDATE(A442,1)</f>
         <v>42917</v>
@@ -14122,7 +14121,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <f t="shared" si="11"/>
         <v>42948</v>
@@ -14147,7 +14146,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <f t="shared" si="11"/>
         <v>42979</v>
@@ -14174,7 +14173,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>62</v>
@@ -14196,7 +14195,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>357</v>
@@ -14216,7 +14215,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="51"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f>EDATE(A447,1)</f>
         <v>43009</v>
@@ -14241,7 +14240,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <f>EDATE(A450,1)</f>
         <v>43040</v>
@@ -14262,7 +14261,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <f t="shared" si="11"/>
         <v>43070</v>
@@ -14283,7 +14282,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="48" t="s">
         <v>359</v>
       </c>
@@ -14301,7 +14300,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <f>EDATE(A452,1)</f>
         <v>43101</v>
@@ -14328,7 +14327,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>62</v>
@@ -14348,7 +14347,7 @@
         <v>43108</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>63</v>
@@ -14368,7 +14367,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <f>EDATE(A454,1)</f>
         <v>43132</v>
@@ -14395,7 +14394,7 @@
         <v>43150</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <f>EDATE(A457,1)</f>
         <v>43160</v>
@@ -14416,7 +14415,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <f t="shared" ref="A459:A460" si="12">EDATE(A458,1)</f>
         <v>43191</v>
@@ -14437,7 +14436,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <f t="shared" si="12"/>
         <v>43221</v>
@@ -14464,7 +14463,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>62</v>
@@ -14486,7 +14485,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>363</v>
@@ -14506,7 +14505,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <f>EDATE(A460,1)</f>
         <v>43252</v>
@@ -14531,7 +14530,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <f>EDATE(A463,1)</f>
         <v>43282</v>
@@ -14556,7 +14555,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <f>EDATE(A464,1)</f>
         <v>43313</v>
@@ -14581,7 +14580,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <f t="shared" ref="A466:A470" si="13">EDATE(A465,1)</f>
         <v>43344</v>
@@ -14606,7 +14605,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <f t="shared" si="13"/>
         <v>43374</v>
@@ -14631,7 +14630,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="52" t="s">
         <v>386</v>
@@ -14651,7 +14650,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <f>EDATE(A467,1)</f>
         <v>43405</v>
@@ -14676,7 +14675,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <f t="shared" si="13"/>
         <v>43435</v>
@@ -14701,7 +14700,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="48" t="s">
         <v>371</v>
       </c>
@@ -14719,7 +14718,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <f>EDATE(A470,1)</f>
         <v>43466</v>
@@ -14740,7 +14739,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <f>EDATE(A472,1)</f>
         <v>43497</v>
@@ -14765,7 +14764,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>87</v>
@@ -14785,7 +14784,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>141</v>
@@ -14805,7 +14804,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <f>EDATE(A473,1)</f>
         <v>43525</v>
@@ -14830,7 +14829,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <f t="shared" ref="A477:A484" si="14">EDATE(A476,1)</f>
         <v>43556</v>
@@ -14857,7 +14856,7 @@
         <v>43560</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>376</v>
@@ -14875,12 +14874,12 @@
       <c r="H478" s="39"/>
       <c r="I478" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>62.458999999999889</v>
+        <v>62.708999999999889</v>
       </c>
       <c r="J478" s="11"/>
       <c r="K478" s="51"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <f>EDATE(A477,1)</f>
         <v>43586</v>
@@ -14905,7 +14904,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <f t="shared" si="14"/>
         <v>43617</v>
@@ -14930,7 +14929,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <f t="shared" si="14"/>
         <v>43647</v>
@@ -14955,7 +14954,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <f t="shared" si="14"/>
         <v>43678</v>
@@ -14980,7 +14979,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <f t="shared" si="14"/>
         <v>43709</v>
@@ -15005,7 +15004,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <f t="shared" si="14"/>
         <v>43739</v>
@@ -15030,7 +15029,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>383</v>
@@ -15050,7 +15049,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="49"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <f>EDATE(A484,1)</f>
         <v>43770</v>
@@ -15075,7 +15074,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <f>EDATE(A486,1)</f>
         <v>43800</v>
@@ -15100,7 +15099,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>388</v>
@@ -15120,7 +15119,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>389</v>
@@ -15140,7 +15139,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="48" t="s">
         <v>391</v>
       </c>
@@ -15158,7 +15157,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <f>EDATE(A487,1)</f>
         <v>43831</v>
@@ -15183,7 +15182,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>63</v>
@@ -15203,7 +15202,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>395</v>
@@ -15223,7 +15222,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="52"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>92</v>
@@ -15245,7 +15244,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <f>EDATE(A491,1)</f>
         <v>43862</v>
@@ -15270,7 +15269,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <f t="shared" ref="A496:A504" si="15">EDATE(A495,1)</f>
         <v>43891</v>
@@ -15291,7 +15290,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <f t="shared" si="15"/>
         <v>43922</v>
@@ -15312,7 +15311,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <f t="shared" si="15"/>
         <v>43952</v>
@@ -15333,7 +15332,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <f t="shared" si="15"/>
         <v>43983</v>
@@ -15354,7 +15353,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <f t="shared" si="15"/>
         <v>44013</v>
@@ -15375,7 +15374,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <f t="shared" si="15"/>
         <v>44044</v>
@@ -15396,7 +15395,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <f t="shared" si="15"/>
         <v>44075</v>
@@ -15417,7 +15416,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <f>EDATE(A502,1)</f>
         <v>44105</v>
@@ -15438,7 +15437,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <f t="shared" si="15"/>
         <v>44136</v>
@@ -15459,7 +15458,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <f>EDATE(A504,1)</f>
         <v>44166</v>
@@ -15484,7 +15483,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="48" t="s">
         <v>398</v>
       </c>
@@ -15502,7 +15501,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <f>EDATE(A505,1)</f>
         <v>44197</v>
@@ -15523,7 +15522,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <f>EDATE(A507,1)</f>
         <v>44228</v>
@@ -15544,7 +15543,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <f t="shared" ref="A509:A518" si="16">EDATE(A508,1)</f>
         <v>44256</v>
@@ -15565,7 +15564,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <f t="shared" si="16"/>
         <v>44287</v>
@@ -15586,7 +15585,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <f t="shared" si="16"/>
         <v>44317</v>
@@ -15607,7 +15606,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <f t="shared" si="16"/>
         <v>44348</v>
@@ -15628,7 +15627,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <f t="shared" si="16"/>
         <v>44378</v>
@@ -15649,7 +15648,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <f t="shared" si="16"/>
         <v>44409</v>
@@ -15670,7 +15669,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <f t="shared" si="16"/>
         <v>44440</v>
@@ -15691,7 +15690,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <f t="shared" si="16"/>
         <v>44470</v>
@@ -15712,7 +15711,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <f t="shared" si="16"/>
         <v>44501</v>
@@ -15733,7 +15732,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <f t="shared" si="16"/>
         <v>44531</v>
@@ -15758,7 +15757,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>47</v>
@@ -15778,7 +15777,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="48" t="s">
         <v>400</v>
       </c>
@@ -15796,7 +15795,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <f>EDATE(A518,1)</f>
         <v>44562</v>
@@ -15817,7 +15816,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <f>EDATE(A521,1)</f>
         <v>44593</v>
@@ -15838,7 +15837,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <f t="shared" ref="A523:A528" si="17">EDATE(A522,1)</f>
         <v>44621</v>
@@ -15859,7 +15858,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <f t="shared" si="17"/>
         <v>44652</v>
@@ -15886,7 +15885,7 @@
         <v>44665</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>62</v>
@@ -15905,7 +15904,7 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <f>EDATE(A524,1)</f>
         <v>44682</v>
@@ -15926,7 +15925,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <f t="shared" si="17"/>
         <v>44713</v>
@@ -15947,7 +15946,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <f t="shared" si="17"/>
         <v>44743</v>
@@ -15974,7 +15973,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>44774</v>
       </c>
@@ -15994,7 +15993,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>44805</v>
       </c>
@@ -16014,7 +16013,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>44835</v>
       </c>
@@ -16040,7 +16039,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>389</v>
@@ -16062,7 +16061,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>44866</v>
       </c>
@@ -16082,7 +16081,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>44896</v>
       </c>
@@ -16106,7 +16105,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="48" t="s">
         <v>404</v>
       </c>
@@ -16124,7 +16123,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>44927</v>
       </c>
@@ -16150,7 +16149,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>68</v>
@@ -16172,7 +16171,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>44958</v>
       </c>
@@ -16198,7 +16197,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>87</v>
@@ -16218,7 +16217,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>44986</v>
       </c>
@@ -16244,7 +16243,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>68</v>
@@ -16266,25 +16265,33 @@
         <v>410</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>45017</v>
       </c>
-      <c r="B542" s="20"/>
-      <c r="C542" s="13"/>
+      <c r="B542" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C542" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D542" s="39"/>
       <c r="E542" s="9"/>
       <c r="F542" s="20"/>
-      <c r="G542" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H542" s="39"/>
+      <c r="G542" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H542" s="39">
+        <v>1</v>
+      </c>
       <c r="I542" s="9"/>
       <c r="J542" s="11"/>
-      <c r="K542" s="20"/>
-    </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K542" s="51">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>45047</v>
       </c>
@@ -16302,7 +16309,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>45078</v>
       </c>
@@ -16320,7 +16327,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>45108</v>
       </c>
@@ -16338,7 +16345,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>45139</v>
       </c>
@@ -16356,7 +16363,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>45170</v>
       </c>
@@ -16374,7 +16381,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>45200</v>
       </c>
@@ -16392,7 +16399,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>45231</v>
       </c>
@@ -16410,7 +16417,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>45261</v>
       </c>
@@ -16428,7 +16435,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>45292</v>
       </c>
@@ -16446,7 +16453,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>45323</v>
       </c>
@@ -16464,7 +16471,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>45352</v>
       </c>
@@ -16482,7 +16489,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>45383</v>
       </c>
@@ -16500,7 +16507,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>45413</v>
       </c>
@@ -16518,7 +16525,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>45444</v>
       </c>
@@ -16536,7 +16543,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>45474</v>
       </c>
@@ -16554,7 +16561,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>45505</v>
       </c>
@@ -16572,7 +16579,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>45536</v>
       </c>
@@ -16590,7 +16597,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>45566</v>
       </c>
@@ -16608,7 +16615,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>45597</v>
       </c>
@@ -16626,7 +16633,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>45627</v>
       </c>
@@ -16644,7 +16651,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>45658</v>
       </c>
@@ -16662,7 +16669,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>45689</v>
       </c>
@@ -16680,7 +16687,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>45717</v>
       </c>
@@ -16698,7 +16705,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>45748</v>
       </c>
@@ -16716,7 +16723,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>45778</v>
       </c>
@@ -16734,7 +16741,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>45809</v>
       </c>
@@ -16752,7 +16759,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16768,7 +16775,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16784,7 +16791,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16800,7 +16807,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16816,7 +16823,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16832,7 +16839,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -16848,7 +16855,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -16864,7 +16871,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -16880,7 +16887,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16896,7 +16903,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16912,7 +16919,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="41"/>
       <c r="B579" s="15"/>
       <c r="C579" s="42"/>
@@ -16943,10 +16950,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16972,7 +16979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -16980,21 +16987,21 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
@@ -17007,7 +17014,7 @@
       <c r="K1" s="65"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17036,7 +17043,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -17060,17 +17067,17 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -17091,7 +17098,7 @@
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -17118,7 +17125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17144,7 +17151,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -17170,7 +17177,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -17196,7 +17203,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -17222,7 +17229,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -17248,7 +17255,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -17274,7 +17281,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -17300,7 +17307,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -17320,7 +17327,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -17340,7 +17347,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -17360,7 +17367,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -17381,7 +17388,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17402,7 +17409,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17423,7 +17430,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17444,7 +17451,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17465,7 +17472,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17486,7 +17493,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17507,7 +17514,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17528,7 +17535,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17549,7 +17556,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17570,7 +17577,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17591,7 +17598,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17612,7 +17619,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17633,7 +17640,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17654,7 +17661,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17675,7 +17682,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17696,7 +17703,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17717,7 +17724,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17738,7 +17745,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17759,7 +17766,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17780,7 +17787,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17789,7 +17796,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17798,7 +17805,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17807,7 +17814,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17816,7 +17823,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17825,7 +17832,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17834,7 +17841,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17843,7 +17850,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17852,7 +17859,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17861,7 +17868,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17870,7 +17877,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17879,7 +17886,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17888,7 +17895,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17897,7 +17904,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17906,7 +17913,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17915,7 +17922,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17924,7 +17931,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17933,7 +17940,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17942,7 +17949,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17951,7 +17958,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17960,7 +17967,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17969,7 +17976,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17978,7 +17985,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17987,7 +17994,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17996,7 +18003,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18005,7 +18012,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18014,7 +18021,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18023,7 +18030,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18032,7 +18039,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18041,7 +18048,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/ZALDIVIA, MIRIAM F..xlsx
+++ b/REGULAR/OJT/NEW DONE/ZALDIVIA, MIRIAM F..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF38B9DA-4874-491B-88D0-3BAFEC8D4585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="601" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="601" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="415">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1276,12 +1277,15 @@
   </si>
   <si>
     <t>10/17-21/2022</t>
+  </si>
+  <si>
+    <t>5/15,16/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1526,7 +1530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1718,6 +1722,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2167,7 +2177,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2210,7 +2220,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,7 +2284,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,7 +2344,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2400,7 +2410,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2473,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2561,7 +2571,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2620,7 +2630,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2685,7 +2695,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2728,7 +2738,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2803,7 +2813,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2989,7 +2999,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3055,7 +3065,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3113,7 +3123,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3179,7 +3189,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3235,7 +3245,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3310,7 +3320,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3353,7 +3363,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3419,7 +3429,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3475,7 +3485,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3573,7 +3583,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3636,7 +3646,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3685,7 +3695,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3702,25 +3712,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K579" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K579" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3732,13 +3742,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3747,14 +3757,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4058,7 +4068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4068,7 +4078,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4076,34 +4086,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K579"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A531" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B543" sqref="B543"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <pane ySplit="3504" topLeftCell="A4" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4124,7 +4134,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4142,7 +4152,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4164,7 +4174,7 @@
       <c r="J4" s="60"/>
       <c r="K4" s="61"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4172,7 +4182,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4185,7 +4195,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -4202,7 +4212,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4237,7 +4247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4246,7 +4256,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>1.6649999999998499</v>
+        <v>2.9149999999998499</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4256,12 +4266,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>62.708999999999889</v>
+        <v>61.958999999999889</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -4283,7 +4293,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>34612</v>
       </c>
@@ -4303,7 +4313,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>34639</v>
       </c>
@@ -4323,7 +4333,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>34669</v>
@@ -4344,7 +4354,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
         <v>44</v>
       </c>
@@ -4362,7 +4372,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f>EDATE(A13,1)</f>
         <v>34700</v>
@@ -4383,7 +4393,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <f>EDATE(A15,1)</f>
         <v>34731</v>
@@ -4404,7 +4414,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <f t="shared" ref="A17:A26" si="0">EDATE(A16,1)</f>
         <v>34759</v>
@@ -4425,7 +4435,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>34790</v>
@@ -4446,7 +4456,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>34820</v>
@@ -4467,7 +4477,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>34851</v>
@@ -4488,7 +4498,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>34881</v>
@@ -4509,7 +4519,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>34912</v>
@@ -4536,7 +4546,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>34943</v>
@@ -4557,7 +4567,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>34973</v>
@@ -4578,7 +4588,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <f>EDATE(A24,1)</f>
         <v>35004</v>
@@ -4599,7 +4609,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>35034</v>
@@ -4624,7 +4634,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="48" t="s">
         <v>48</v>
       </c>
@@ -4642,7 +4652,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f>EDATE(A26,1)</f>
         <v>35065</v>
@@ -4663,7 +4673,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f>EDATE(A28,1)</f>
         <v>35096</v>
@@ -4684,7 +4694,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f t="shared" ref="A30:A40" si="1">EDATE(A29,1)</f>
         <v>35125</v>
@@ -4705,7 +4715,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>35156</v>
@@ -4726,7 +4736,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f t="shared" si="1"/>
         <v>35186</v>
@@ -4747,7 +4757,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>35217</v>
@@ -4768,7 +4778,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f t="shared" si="1"/>
         <v>35247</v>
@@ -4789,7 +4799,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f t="shared" si="1"/>
         <v>35278</v>
@@ -4816,7 +4826,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f>EDATE(A35,1)</f>
         <v>35309</v>
@@ -4843,7 +4853,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>58</v>
@@ -4865,7 +4875,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f>EDATE(A36,1)</f>
         <v>35339</v>
@@ -4886,7 +4896,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f t="shared" si="1"/>
         <v>35370</v>
@@ -4907,7 +4917,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f t="shared" si="1"/>
         <v>35400</v>
@@ -4928,7 +4938,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="48" t="s">
         <v>49</v>
       </c>
@@ -4946,7 +4956,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>35431</v>
@@ -4967,7 +4977,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f>EDATE(A42,1)</f>
         <v>35462</v>
@@ -4988,7 +4998,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f t="shared" ref="A44:A55" si="2">EDATE(A43,1)</f>
         <v>35490</v>
@@ -5009,7 +5019,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>35521</v>
@@ -5030,7 +5040,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f t="shared" si="2"/>
         <v>35551</v>
@@ -5051,7 +5061,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>35582</v>
@@ -5078,7 +5088,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>62</v>
@@ -5100,7 +5110,7 @@
         <v>35607</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f>EDATE(A47,1)</f>
         <v>35612</v>
@@ -5121,7 +5131,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f t="shared" si="2"/>
         <v>35643</v>
@@ -5142,7 +5152,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>35674</v>
@@ -5167,7 +5177,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>62</v>
@@ -5189,7 +5199,7 @@
         <v>35703</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f>EDATE(A51,1)</f>
         <v>35704</v>
@@ -5216,7 +5226,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f>EDATE(A53,1)</f>
         <v>35735</v>
@@ -5237,7 +5247,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f t="shared" si="2"/>
         <v>35765</v>
@@ -5262,7 +5272,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
         <v>50</v>
       </c>
@@ -5280,7 +5290,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f>EDATE(A55,1)</f>
         <v>35796</v>
@@ -5301,7 +5311,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f>EDATE(A57,1)</f>
         <v>35827</v>
@@ -5328,7 +5338,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f t="shared" ref="A59:A69" si="3">EDATE(A58,1)</f>
         <v>35855</v>
@@ -5349,7 +5359,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f t="shared" si="3"/>
         <v>35886</v>
@@ -5370,7 +5380,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>35916</v>
@@ -5397,7 +5407,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <f t="shared" si="3"/>
         <v>35947</v>
@@ -5424,7 +5434,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f t="shared" si="3"/>
         <v>35977</v>
@@ -5445,7 +5455,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f t="shared" si="3"/>
         <v>36008</v>
@@ -5472,7 +5482,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>73</v>
@@ -5492,7 +5502,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f>EDATE(A64,1)</f>
         <v>36039</v>
@@ -5517,7 +5527,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f t="shared" si="3"/>
         <v>36069</v>
@@ -5542,7 +5552,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f t="shared" si="3"/>
         <v>36100</v>
@@ -5567,7 +5577,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f t="shared" si="3"/>
         <v>36130</v>
@@ -5589,12 +5599,12 @@
         <v>5</v>
       </c>
       <c r="I69" s="9"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="49" t="s">
+      <c r="J69" s="66"/>
+      <c r="K69" s="67" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>76</v>
@@ -5614,7 +5624,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>54</v>
@@ -5634,7 +5644,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="48" t="s">
         <v>51</v>
       </c>
@@ -5652,7 +5662,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f>EDATE(A69,1)</f>
         <v>36161</v>
@@ -5679,7 +5689,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>62</v>
@@ -5701,7 +5711,7 @@
         <v>36189</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>81</v>
@@ -5721,7 +5731,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <f>EDATE(A73,1)</f>
         <v>36192</v>
@@ -5742,7 +5752,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f t="shared" ref="A77:A90" si="4">EDATE(A76,1)</f>
         <v>36220</v>
@@ -5769,7 +5779,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f t="shared" si="4"/>
         <v>36251</v>
@@ -5796,7 +5806,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>85</v>
@@ -5816,7 +5826,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f>EDATE(A78,1)</f>
         <v>36281</v>
@@ -5841,7 +5851,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f>EDATE(A80,1)</f>
         <v>36312</v>
@@ -5868,7 +5878,7 @@
         <v>36313</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>87</v>
@@ -5888,7 +5898,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>87</v>
@@ -5908,7 +5918,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>90</v>
@@ -5930,7 +5940,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f>EDATE(A81,1)</f>
         <v>36342</v>
@@ -5951,7 +5961,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f t="shared" si="4"/>
         <v>36373</v>
@@ -5972,7 +5982,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <f t="shared" si="4"/>
         <v>36404</v>
@@ -5999,7 +6009,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>94</v>
@@ -6019,7 +6029,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f>EDATE(A87,1)</f>
         <v>36434</v>
@@ -6040,7 +6050,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f t="shared" si="4"/>
         <v>36465</v>
@@ -6061,7 +6071,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <f>EDATE(A90,1)</f>
         <v>36495</v>
@@ -6086,7 +6096,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="48" t="s">
         <v>52</v>
       </c>
@@ -6104,7 +6114,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <f>EDATE(A91,1)</f>
         <v>36526</v>
@@ -6125,7 +6135,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f>EDATE(A93,1)</f>
         <v>36557</v>
@@ -6146,7 +6156,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" ref="A95:A104" si="5">EDATE(A94,1)</f>
         <v>36586</v>
@@ -6167,7 +6177,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="5"/>
         <v>36617</v>
@@ -6188,7 +6198,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="5"/>
         <v>36647</v>
@@ -6209,7 +6219,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f t="shared" si="5"/>
         <v>36678</v>
@@ -6230,7 +6240,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f t="shared" si="5"/>
         <v>36708</v>
@@ -6257,7 +6267,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f t="shared" si="5"/>
         <v>36739</v>
@@ -6284,7 +6294,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f t="shared" si="5"/>
         <v>36770</v>
@@ -6305,7 +6315,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f t="shared" si="5"/>
         <v>36800</v>
@@ -6326,7 +6336,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f t="shared" si="5"/>
         <v>36831</v>
@@ -6347,7 +6357,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f t="shared" si="5"/>
         <v>36861</v>
@@ -6372,7 +6382,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="48" t="s">
         <v>53</v>
       </c>
@@ -6390,7 +6400,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f>EDATE(A104,1)</f>
         <v>36892</v>
@@ -6411,7 +6421,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f>EDATE(A106,1)</f>
         <v>36923</v>
@@ -6432,7 +6442,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f t="shared" ref="A108:A117" si="6">EDATE(A107,1)</f>
         <v>36951</v>
@@ -6459,7 +6469,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f t="shared" si="6"/>
         <v>36982</v>
@@ -6480,7 +6490,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f t="shared" si="6"/>
         <v>37012</v>
@@ -6507,7 +6517,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f t="shared" si="6"/>
         <v>37043</v>
@@ -6532,7 +6542,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f t="shared" si="6"/>
         <v>37073</v>
@@ -6553,7 +6563,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f t="shared" si="6"/>
         <v>37104</v>
@@ -6574,7 +6584,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <f t="shared" si="6"/>
         <v>37135</v>
@@ -6595,7 +6605,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f t="shared" si="6"/>
         <v>37165</v>
@@ -6616,7 +6626,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f t="shared" si="6"/>
         <v>37196</v>
@@ -6637,7 +6647,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f t="shared" si="6"/>
         <v>37226</v>
@@ -6662,7 +6672,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="48" t="s">
         <v>100</v>
       </c>
@@ -6680,7 +6690,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>37257</v>
@@ -6701,7 +6711,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" ref="A120:A200" si="7">EDATE(A119,1)</f>
         <v>37288</v>
@@ -6722,7 +6732,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f t="shared" si="7"/>
         <v>37316</v>
@@ -6743,7 +6753,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f t="shared" si="7"/>
         <v>37347</v>
@@ -6764,7 +6774,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f t="shared" si="7"/>
         <v>37377</v>
@@ -6785,7 +6795,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f t="shared" si="7"/>
         <v>37408</v>
@@ -6806,7 +6816,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f t="shared" si="7"/>
         <v>37438</v>
@@ -6833,7 +6843,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f t="shared" si="7"/>
         <v>37469</v>
@@ -6854,7 +6864,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f t="shared" si="7"/>
         <v>37500</v>
@@ -6881,7 +6891,7 @@
         <v>37501</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f t="shared" si="7"/>
         <v>37530</v>
@@ -6908,7 +6918,7 @@
         <v>37537</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f t="shared" si="7"/>
         <v>37561</v>
@@ -6929,7 +6939,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f t="shared" si="7"/>
         <v>37591</v>
@@ -6954,7 +6964,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="48" t="s">
         <v>102</v>
       </c>
@@ -6972,7 +6982,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f>EDATE(A130,1)</f>
         <v>37622</v>
@@ -6993,7 +7003,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <f t="shared" si="7"/>
         <v>37653</v>
@@ -7014,7 +7024,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f t="shared" si="7"/>
         <v>37681</v>
@@ -7041,7 +7051,7 @@
         <v>37704</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <f t="shared" si="7"/>
         <v>37712</v>
@@ -7068,7 +7078,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <f t="shared" si="7"/>
         <v>37742</v>
@@ -7089,7 +7099,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f t="shared" si="7"/>
         <v>37773</v>
@@ -7110,7 +7120,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f t="shared" si="7"/>
         <v>37803</v>
@@ -7131,7 +7141,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f t="shared" si="7"/>
         <v>37834</v>
@@ -7152,7 +7162,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f t="shared" si="7"/>
         <v>37865</v>
@@ -7179,7 +7189,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>106</v>
@@ -7201,7 +7211,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f>EDATE(A140,1)</f>
         <v>37895</v>
@@ -7222,7 +7232,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f t="shared" si="7"/>
         <v>37926</v>
@@ -7243,7 +7253,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="7"/>
         <v>37956</v>
@@ -7264,7 +7274,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="48" t="s">
         <v>108</v>
       </c>
@@ -7282,7 +7292,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f>EDATE(A144,1)</f>
         <v>37987</v>
@@ -7305,7 +7315,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f t="shared" si="7"/>
         <v>38018</v>
@@ -7326,7 +7336,7 @@
       <c r="J147" s="12"/>
       <c r="K147" s="15"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f t="shared" si="7"/>
         <v>38047</v>
@@ -7349,7 +7359,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <f t="shared" si="7"/>
         <v>38078</v>
@@ -7376,7 +7386,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f t="shared" si="7"/>
         <v>38108</v>
@@ -7403,7 +7413,7 @@
         <v>38131</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f t="shared" si="7"/>
         <v>38139</v>
@@ -7424,7 +7434,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f t="shared" si="7"/>
         <v>38169</v>
@@ -7451,7 +7461,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <f t="shared" si="7"/>
         <v>38200</v>
@@ -7472,7 +7482,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f t="shared" si="7"/>
         <v>38231</v>
@@ -7499,7 +7509,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>62</v>
@@ -7521,7 +7531,7 @@
         <v>38246</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <f>EDATE(A154,1)</f>
         <v>38261</v>
@@ -7548,7 +7558,7 @@
         <v>38265</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>92</v>
@@ -7570,7 +7580,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>62</v>
@@ -7592,7 +7602,7 @@
         <v>38280</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f>EDATE(A156,1)</f>
         <v>38292</v>
@@ -7613,7 +7623,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <f>EDATE(A159,1)</f>
         <v>38322</v>
@@ -7638,7 +7648,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="48" t="s">
         <v>112</v>
       </c>
@@ -7656,7 +7666,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f>EDATE(A160,1)</f>
         <v>38353</v>
@@ -7683,7 +7693,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <f t="shared" si="7"/>
         <v>38384</v>
@@ -7704,7 +7714,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <f t="shared" si="7"/>
         <v>38412</v>
@@ -7725,7 +7735,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f t="shared" si="7"/>
         <v>38443</v>
@@ -7752,7 +7762,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>87</v>
@@ -7772,7 +7782,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>68</v>
@@ -7794,7 +7804,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <f>EDATE(A165,1)</f>
         <v>38473</v>
@@ -7821,7 +7831,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <f t="shared" si="7"/>
         <v>38504</v>
@@ -7848,7 +7858,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <f t="shared" si="7"/>
         <v>38534</v>
@@ -7875,7 +7885,7 @@
         <v>38540</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f t="shared" si="7"/>
         <v>38565</v>
@@ -7902,7 +7912,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f t="shared" si="7"/>
         <v>38596</v>
@@ -7927,7 +7937,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <f t="shared" si="7"/>
         <v>38626</v>
@@ -7954,7 +7964,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>126</v>
@@ -7976,7 +7986,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <f>EDATE(A173,1)</f>
         <v>38657</v>
@@ -7997,7 +8007,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <f>EDATE(A175,1)</f>
         <v>38687</v>
@@ -8018,7 +8028,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="48" t="s">
         <v>128</v>
       </c>
@@ -8036,7 +8046,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <f>EDATE(A176,1)</f>
         <v>38718</v>
@@ -8063,7 +8073,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>70</v>
@@ -8085,7 +8095,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>68</v>
@@ -8107,7 +8117,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f>EDATE(A178,1)</f>
         <v>38749</v>
@@ -8128,7 +8138,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <f t="shared" si="7"/>
         <v>38777</v>
@@ -8155,7 +8165,7 @@
         <v>38779</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f t="shared" si="7"/>
         <v>38808</v>
@@ -8182,7 +8192,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <f t="shared" si="7"/>
         <v>38838</v>
@@ -8209,7 +8219,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>87</v>
@@ -8229,7 +8239,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f>EDATE(A184,1)</f>
         <v>38869</v>
@@ -8250,7 +8260,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f t="shared" si="7"/>
         <v>38899</v>
@@ -8277,7 +8287,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <f t="shared" si="7"/>
         <v>38930</v>
@@ -8298,7 +8308,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f t="shared" si="7"/>
         <v>38961</v>
@@ -8325,7 +8335,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f t="shared" si="7"/>
         <v>38991</v>
@@ -8352,7 +8362,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>68</v>
@@ -8374,7 +8384,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>403</v>
@@ -8396,7 +8406,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f>EDATE(A190,1)</f>
         <v>39022</v>
@@ -8423,7 +8433,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <f t="shared" si="7"/>
         <v>39052</v>
@@ -8448,7 +8458,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>92</v>
@@ -8470,7 +8480,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>58</v>
@@ -8492,7 +8502,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="48" t="s">
         <v>145</v>
       </c>
@@ -8510,7 +8520,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f>EDATE(A194,1)</f>
         <v>39083</v>
@@ -8531,7 +8541,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <f t="shared" si="7"/>
         <v>39114</v>
@@ -8552,7 +8562,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f t="shared" si="7"/>
         <v>39142</v>
@@ -8579,7 +8589,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <f>EDATE(A200,1)</f>
         <v>39173</v>
@@ -8606,7 +8616,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>62</v>
@@ -8628,7 +8638,7 @@
         <v>39185</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>148</v>
@@ -8650,7 +8660,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>87</v>
@@ -8670,7 +8680,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>104</v>
@@ -8692,7 +8702,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>62</v>
@@ -8714,7 +8724,7 @@
         <v>39202</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <f>EDATE(A201,1)</f>
         <v>39203</v>
@@ -8735,7 +8745,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <f t="shared" ref="A208:A352" si="8">EDATE(A207,1)</f>
         <v>39234</v>
@@ -8756,7 +8766,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <f t="shared" si="8"/>
         <v>39264</v>
@@ -8783,7 +8793,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <f t="shared" si="8"/>
         <v>39295</v>
@@ -8808,7 +8818,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>62</v>
@@ -8830,7 +8840,7 @@
         <v>39304</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <f>EDATE(A210,1)</f>
         <v>39326</v>
@@ -8851,7 +8861,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f t="shared" si="8"/>
         <v>39356</v>
@@ -8872,7 +8882,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f t="shared" si="8"/>
         <v>39387</v>
@@ -8899,7 +8909,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>62</v>
@@ -8921,7 +8931,7 @@
         <v>39402</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>155</v>
@@ -8941,7 +8951,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <f>EDATE(A214,1)</f>
         <v>39417</v>
@@ -8968,7 +8978,7 @@
         <v>39420</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>47</v>
@@ -8990,7 +9000,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="48" t="s">
         <v>158</v>
       </c>
@@ -9008,7 +9018,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="51"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f>EDATE(A217,1)</f>
         <v>39448</v>
@@ -9035,7 +9045,7 @@
         <v>39455</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>62</v>
@@ -9057,7 +9067,7 @@
         <v>39477</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f>EDATE(A220,1)</f>
         <v>39479</v>
@@ -9082,7 +9092,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f t="shared" si="8"/>
         <v>39508</v>
@@ -9103,7 +9113,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f t="shared" si="8"/>
         <v>39539</v>
@@ -9130,7 +9140,7 @@
         <v>39549</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>87</v>
@@ -9150,7 +9160,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f>EDATE(A224,1)</f>
         <v>39569</v>
@@ -9171,7 +9181,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f t="shared" si="8"/>
         <v>39600</v>
@@ -9192,7 +9202,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f t="shared" si="8"/>
         <v>39630</v>
@@ -9219,7 +9229,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>92</v>
@@ -9241,7 +9251,7 @@
         <v>39657</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>39661</v>
@@ -9262,7 +9272,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <f t="shared" si="8"/>
         <v>39692</v>
@@ -9289,7 +9299,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <f t="shared" si="8"/>
         <v>39722</v>
@@ -9316,7 +9326,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>92</v>
@@ -9338,7 +9348,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <f>EDATE(A232,1)</f>
         <v>39753</v>
@@ -9365,7 +9375,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>54</v>
@@ -9387,7 +9397,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f>EDATE(A234,1)</f>
         <v>39783</v>
@@ -9412,7 +9422,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>168</v>
@@ -9432,7 +9442,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>126</v>
@@ -9452,7 +9462,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="48" t="s">
         <v>169</v>
       </c>
@@ -9470,7 +9480,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f>EDATE(A236,1)</f>
         <v>39814</v>
@@ -9497,7 +9507,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>62</v>
@@ -9519,7 +9529,7 @@
         <v>39839</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>172</v>
@@ -9537,7 +9547,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <f>EDATE(A240,1)</f>
         <v>39845</v>
@@ -9562,7 +9572,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>87</v>
@@ -9582,7 +9592,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f>EDATE(A243,1)</f>
         <v>39873</v>
@@ -9609,7 +9619,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>62</v>
@@ -9631,7 +9641,7 @@
         <v>39886</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>68</v>
@@ -9653,7 +9663,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>62</v>
@@ -9675,7 +9685,7 @@
         <v>39899</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>62</v>
@@ -9697,7 +9707,7 @@
         <v>39890</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>175</v>
@@ -9717,7 +9727,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f>EDATE(A245,1)</f>
         <v>39904</v>
@@ -9742,7 +9752,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f t="shared" si="8"/>
         <v>39934</v>
@@ -9769,7 +9779,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>62</v>
@@ -9789,7 +9799,7 @@
         <v>39955</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>62</v>
@@ -9809,7 +9819,7 @@
         <v>39960</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>180</v>
@@ -9829,7 +9839,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f>EDATE(A252,1)</f>
         <v>39965</v>
@@ -9856,7 +9866,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>181</v>
@@ -9876,7 +9886,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <f>EDATE(A256,1)</f>
         <v>39995</v>
@@ -9901,7 +9911,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <f t="shared" si="8"/>
         <v>40026</v>
@@ -9928,7 +9938,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>62</v>
@@ -9950,7 +9960,7 @@
         <v>40042</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>62</v>
@@ -9972,7 +9982,7 @@
         <v>40051</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>62</v>
@@ -9994,7 +10004,7 @@
         <v>40057</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>185</v>
@@ -10014,7 +10024,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="51"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A259,1)</f>
         <v>40057</v>
@@ -10041,7 +10051,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>62</v>
@@ -10063,7 +10073,7 @@
         <v>40081</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>187</v>
@@ -10083,7 +10093,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f>EDATE(A264,1)</f>
         <v>40087</v>
@@ -10110,7 +10120,7 @@
         <v>40087</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>62</v>
@@ -10132,7 +10142,7 @@
         <v>40093</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>68</v>
@@ -10154,7 +10164,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>92</v>
@@ -10176,7 +10186,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>188</v>
@@ -10196,7 +10206,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f>EDATE(A267,1)</f>
         <v>40118</v>
@@ -10223,7 +10233,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>191</v>
@@ -10243,7 +10253,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>40148</v>
@@ -10270,7 +10280,7 @@
         <v>40151</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>68</v>
@@ -10289,7 +10299,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>87</v>
@@ -10306,7 +10316,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>106</v>
@@ -10325,7 +10335,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="48" t="s">
         <v>193</v>
       </c>
@@ -10340,7 +10350,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <f>EDATE(A274,1)</f>
         <v>40179</v>
@@ -10365,7 +10375,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>104</v>
@@ -10384,7 +10394,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>92</v>
@@ -10403,7 +10413,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>68</v>
@@ -10422,7 +10432,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>92</v>
@@ -10441,7 +10451,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>87</v>
@@ -10458,7 +10468,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>199</v>
@@ -10475,7 +10485,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f>EDATE(A279,1)</f>
         <v>40210</v>
@@ -10500,7 +10510,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>62</v>
@@ -10519,7 +10529,7 @@
         <v>40224</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>205</v>
@@ -10536,7 +10546,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f>EDATE(A286,1)</f>
         <v>40238</v>
@@ -10563,7 +10573,7 @@
         <v>40249</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>62</v>
@@ -10582,7 +10592,7 @@
         <v>40254</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>104</v>
@@ -10604,7 +10614,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>207</v>
@@ -10621,7 +10631,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <f>EDATE(A289,1)</f>
         <v>40269</v>
@@ -10646,7 +10656,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>87</v>
@@ -10663,7 +10673,7 @@
         <v>40296</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>68</v>
@@ -10680,7 +10690,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>208</v>
@@ -10697,7 +10707,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <f>EDATE(A293,1)</f>
         <v>40299</v>
@@ -10724,7 +10734,7 @@
         <v>40322</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>211</v>
@@ -10744,7 +10754,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <f>EDATE(A297,1)</f>
         <v>40330</v>
@@ -10771,7 +10781,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>62</v>
@@ -10793,7 +10803,7 @@
         <v>40345</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>62</v>
@@ -10815,7 +10825,7 @@
         <v>40353</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>213</v>
@@ -10835,7 +10845,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="51"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <f>EDATE(A299,1)</f>
         <v>40360</v>
@@ -10862,7 +10872,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>92</v>
@@ -10884,7 +10894,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>216</v>
@@ -10904,7 +10914,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <f>EDATE(A303,1)</f>
         <v>40391</v>
@@ -10931,7 +10941,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>62</v>
@@ -10950,7 +10960,7 @@
         <v>40414</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>218</v>
@@ -10967,7 +10977,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <f>EDATE(A306,1)</f>
         <v>40422</v>
@@ -10996,7 +11006,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>220</v>
@@ -11015,7 +11025,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>222</v>
@@ -11032,7 +11042,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <f>EDATE(A309,1)</f>
         <v>40452</v>
@@ -11061,7 +11071,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>220</v>
@@ -11080,7 +11090,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>226</v>
@@ -11097,7 +11107,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <f>EDATE(A312,1)</f>
         <v>40483</v>
@@ -11126,7 +11136,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>220</v>
@@ -11145,7 +11155,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>229</v>
@@ -11162,7 +11172,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f>EDATE(A315,1)</f>
         <v>40513</v>
@@ -11187,7 +11197,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="48" t="s">
         <v>231</v>
       </c>
@@ -11205,7 +11215,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <f>EDATE(A318,1)</f>
         <v>40544</v>
@@ -11230,7 +11240,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>234</v>
@@ -11250,7 +11260,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f>EDATE(A320,1)</f>
         <v>40575</v>
@@ -11275,7 +11285,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>236</v>
@@ -11295,7 +11305,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <f>EDATE(A322,1)</f>
         <v>40603</v>
@@ -11320,7 +11330,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f t="shared" si="8"/>
         <v>40634</v>
@@ -11345,7 +11355,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <f t="shared" si="8"/>
         <v>40664</v>
@@ -11370,7 +11380,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <f>EDATE(A326,1)</f>
         <v>40695</v>
@@ -11397,7 +11407,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>240</v>
@@ -11417,7 +11427,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f>EDATE(A327,1)</f>
         <v>40725</v>
@@ -11442,7 +11452,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <f t="shared" si="8"/>
         <v>40756</v>
@@ -11467,7 +11477,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <f t="shared" si="8"/>
         <v>40787</v>
@@ -11492,7 +11502,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <f t="shared" si="8"/>
         <v>40817</v>
@@ -11517,7 +11527,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f t="shared" si="8"/>
         <v>40848</v>
@@ -11544,7 +11554,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>247</v>
@@ -11564,7 +11574,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f>EDATE(A333,1)</f>
         <v>40878</v>
@@ -11589,7 +11599,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="48" t="s">
         <v>249</v>
       </c>
@@ -11607,7 +11617,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <f>EDATE(A335,1)</f>
         <v>40909</v>
@@ -11634,7 +11644,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>250</v>
@@ -11651,7 +11661,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>251</v>
@@ -11668,7 +11678,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <f>EDATE(A337,1)</f>
         <v>40940</v>
@@ -11693,7 +11703,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f t="shared" si="8"/>
         <v>40969</v>
@@ -11718,7 +11728,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <f t="shared" si="8"/>
         <v>41000</v>
@@ -11743,7 +11753,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <f t="shared" si="8"/>
         <v>41030</v>
@@ -11770,7 +11780,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>92</v>
@@ -11789,7 +11799,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>254</v>
@@ -11806,7 +11816,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <f>EDATE(A343,1)</f>
         <v>41061</v>
@@ -11831,7 +11841,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <f t="shared" si="8"/>
         <v>41091</v>
@@ -11858,7 +11868,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>141</v>
@@ -11875,7 +11885,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>92</v>
@@ -11894,7 +11904,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>263</v>
@@ -11911,7 +11921,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <f>EDATE(A347,1)</f>
         <v>41122</v>
@@ -11936,7 +11946,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <f t="shared" si="8"/>
         <v>41153</v>
@@ -11961,7 +11971,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>266</v>
@@ -11981,7 +11991,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <f>EDATE(A352,1)</f>
         <v>41183</v>
@@ -12006,7 +12016,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <f t="shared" ref="A355:A356" si="9">EDATE(A354,1)</f>
         <v>41214</v>
@@ -12027,7 +12037,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <f t="shared" si="9"/>
         <v>41244</v>
@@ -12052,7 +12062,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="48" t="s">
         <v>269</v>
       </c>
@@ -12070,7 +12080,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <f>EDATE(A356,1)</f>
         <v>41275</v>
@@ -12095,7 +12105,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <f t="shared" ref="A359:A431" si="10">EDATE(A358,1)</f>
         <v>41306</v>
@@ -12120,7 +12130,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>68</v>
@@ -12142,7 +12152,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>92</v>
@@ -12164,7 +12174,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>274</v>
@@ -12184,7 +12194,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <f>EDATE(A359,1)</f>
         <v>41334</v>
@@ -12209,7 +12219,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <f t="shared" si="10"/>
         <v>41365</v>
@@ -12236,7 +12246,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>278</v>
@@ -12256,7 +12266,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <f>EDATE(A364,1)</f>
         <v>41395</v>
@@ -12279,7 +12289,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>279</v>
@@ -12299,7 +12309,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <f>EDATE(A366,1)</f>
         <v>41426</v>
@@ -12326,7 +12336,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>281</v>
@@ -12346,7 +12356,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <f>EDATE(A368,1)</f>
         <v>41456</v>
@@ -12371,7 +12381,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <f t="shared" si="10"/>
         <v>41487</v>
@@ -12396,7 +12406,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <f t="shared" si="10"/>
         <v>41518</v>
@@ -12421,7 +12431,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <f t="shared" si="10"/>
         <v>41548</v>
@@ -12446,7 +12456,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f t="shared" si="10"/>
         <v>41579</v>
@@ -12471,7 +12481,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <f t="shared" si="10"/>
         <v>41609</v>
@@ -12496,7 +12506,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="48" t="s">
         <v>282</v>
       </c>
@@ -12514,7 +12524,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f>EDATE(A375,1)</f>
         <v>41640</v>
@@ -12539,7 +12549,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <f t="shared" si="10"/>
         <v>41671</v>
@@ -12564,7 +12574,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <f t="shared" si="10"/>
         <v>41699</v>
@@ -12589,7 +12599,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <f t="shared" si="10"/>
         <v>41730</v>
@@ -12614,7 +12624,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <f t="shared" si="10"/>
         <v>41760</v>
@@ -12639,7 +12649,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <f t="shared" si="10"/>
         <v>41791</v>
@@ -12664,7 +12674,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <f t="shared" si="10"/>
         <v>41821</v>
@@ -12689,7 +12699,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <f t="shared" si="10"/>
         <v>41852</v>
@@ -12714,7 +12724,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <f t="shared" si="10"/>
         <v>41883</v>
@@ -12739,7 +12749,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <f t="shared" si="10"/>
         <v>41913</v>
@@ -12764,7 +12774,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <f t="shared" si="10"/>
         <v>41944</v>
@@ -12789,7 +12799,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <f t="shared" si="10"/>
         <v>41974</v>
@@ -12814,7 +12824,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>304</v>
@@ -12836,7 +12846,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="48" t="s">
         <v>294</v>
       </c>
@@ -12854,7 +12864,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <f>EDATE(A388,1)</f>
         <v>42005</v>
@@ -12879,7 +12889,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>62</v>
@@ -12901,7 +12911,7 @@
         <v>42019</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <f>EDATE(A391,1)</f>
         <v>42036</v>
@@ -12926,7 +12936,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>68</v>
@@ -12948,7 +12958,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <f>EDATE(A393,1)</f>
         <v>42064</v>
@@ -12973,7 +12983,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <f t="shared" si="10"/>
         <v>42095</v>
@@ -12998,7 +13008,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>68</v>
@@ -13020,7 +13030,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <f>EDATE(A396,1)</f>
         <v>42125</v>
@@ -13045,7 +13055,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>75</v>
@@ -13067,7 +13077,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <f>EDATE(A398,1)</f>
         <v>42156</v>
@@ -13092,7 +13102,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>104</v>
@@ -13114,7 +13124,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f>EDATE(A400,1)</f>
         <v>42186</v>
@@ -13139,7 +13149,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f t="shared" si="10"/>
         <v>42217</v>
@@ -13164,7 +13174,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>45</v>
@@ -13186,7 +13196,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f>EDATE(A403,1)</f>
         <v>42248</v>
@@ -13211,7 +13221,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>320</v>
@@ -13233,7 +13243,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <f>EDATE(A405,1)</f>
         <v>42278</v>
@@ -13258,7 +13268,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>62</v>
@@ -13280,7 +13290,7 @@
         <v>42311</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <f>EDATE(A407,1)</f>
         <v>42309</v>
@@ -13305,7 +13315,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>324</v>
@@ -13327,7 +13337,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <f>EDATE(A409,1)</f>
         <v>42339</v>
@@ -13352,7 +13362,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="48" t="s">
         <v>302</v>
       </c>
@@ -13370,7 +13380,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <f>EDATE(A411,1)</f>
         <v>42370</v>
@@ -13395,7 +13405,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>75</v>
@@ -13417,7 +13427,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <f>EDATE(A413,1)</f>
         <v>42401</v>
@@ -13442,7 +13452,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>92</v>
@@ -13464,7 +13474,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>62</v>
@@ -13486,7 +13496,7 @@
         <v>42418</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <f>EDATE(A415,1)</f>
         <v>42430</v>
@@ -13511,7 +13521,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <f>EDATE(A418,1)</f>
         <v>42461</v>
@@ -13536,7 +13546,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <f t="shared" si="10"/>
         <v>42491</v>
@@ -13561,7 +13571,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <f t="shared" si="10"/>
         <v>42522</v>
@@ -13586,7 +13596,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <f t="shared" si="10"/>
         <v>42552</v>
@@ -13611,7 +13621,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <f t="shared" si="10"/>
         <v>42583</v>
@@ -13636,7 +13646,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>337</v>
@@ -13656,7 +13666,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f>EDATE(A423,1)</f>
         <v>42614</v>
@@ -13681,7 +13691,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <f t="shared" si="10"/>
         <v>42644</v>
@@ -13708,7 +13718,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>62</v>
@@ -13730,7 +13740,7 @@
         <v>42654</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>68</v>
@@ -13752,7 +13762,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>341</v>
@@ -13772,7 +13782,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <f>EDATE(A426,1)</f>
         <v>42675</v>
@@ -13797,7 +13807,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <f t="shared" si="10"/>
         <v>42705</v>
@@ -13822,7 +13832,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="48" t="s">
         <v>303</v>
       </c>
@@ -13840,7 +13850,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <f>EDATE(A431,1)</f>
         <v>42736</v>
@@ -13861,7 +13871,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <f>EDATE(A433,1)</f>
         <v>42767</v>
@@ -13886,7 +13896,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <f t="shared" ref="A435:A452" si="11">EDATE(A434,1)</f>
         <v>42795</v>
@@ -13911,7 +13921,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <f t="shared" si="11"/>
         <v>42826</v>
@@ -13938,7 +13948,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>87</v>
@@ -13955,7 +13965,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>92</v>
@@ -13974,7 +13984,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>141</v>
@@ -13991,7 +14001,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>350</v>
@@ -14008,7 +14018,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <f>EDATE(A436,1)</f>
         <v>42856</v>
@@ -14033,7 +14043,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <f t="shared" si="11"/>
         <v>42887</v>
@@ -14060,7 +14070,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>62</v>
@@ -14079,7 +14089,7 @@
         <v>42916</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>353</v>
@@ -14096,7 +14106,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <f>EDATE(A442,1)</f>
         <v>42917</v>
@@ -14121,7 +14131,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <f t="shared" si="11"/>
         <v>42948</v>
@@ -14146,7 +14156,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <f t="shared" si="11"/>
         <v>42979</v>
@@ -14173,7 +14183,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>62</v>
@@ -14195,7 +14205,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>357</v>
@@ -14215,7 +14225,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="51"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f>EDATE(A447,1)</f>
         <v>43009</v>
@@ -14240,7 +14250,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <f>EDATE(A450,1)</f>
         <v>43040</v>
@@ -14261,7 +14271,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <f t="shared" si="11"/>
         <v>43070</v>
@@ -14282,7 +14292,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="48" t="s">
         <v>359</v>
       </c>
@@ -14300,7 +14310,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <f>EDATE(A452,1)</f>
         <v>43101</v>
@@ -14327,7 +14337,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>62</v>
@@ -14347,7 +14357,7 @@
         <v>43108</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>63</v>
@@ -14367,7 +14377,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <f>EDATE(A454,1)</f>
         <v>43132</v>
@@ -14394,7 +14404,7 @@
         <v>43150</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <f>EDATE(A457,1)</f>
         <v>43160</v>
@@ -14415,7 +14425,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <f t="shared" ref="A459:A460" si="12">EDATE(A458,1)</f>
         <v>43191</v>
@@ -14436,7 +14446,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <f t="shared" si="12"/>
         <v>43221</v>
@@ -14463,7 +14473,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>62</v>
@@ -14485,7 +14495,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>363</v>
@@ -14505,7 +14515,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <f>EDATE(A460,1)</f>
         <v>43252</v>
@@ -14530,7 +14540,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <f>EDATE(A463,1)</f>
         <v>43282</v>
@@ -14555,7 +14565,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <f>EDATE(A464,1)</f>
         <v>43313</v>
@@ -14580,7 +14590,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <f t="shared" ref="A466:A470" si="13">EDATE(A465,1)</f>
         <v>43344</v>
@@ -14605,7 +14615,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <f t="shared" si="13"/>
         <v>43374</v>
@@ -14630,7 +14640,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
       <c r="B468" s="52" t="s">
         <v>386</v>
@@ -14650,7 +14660,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <f>EDATE(A467,1)</f>
         <v>43405</v>
@@ -14675,7 +14685,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <f t="shared" si="13"/>
         <v>43435</v>
@@ -14700,7 +14710,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="48" t="s">
         <v>371</v>
       </c>
@@ -14718,7 +14728,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <f>EDATE(A470,1)</f>
         <v>43466</v>
@@ -14739,7 +14749,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <f>EDATE(A472,1)</f>
         <v>43497</v>
@@ -14764,7 +14774,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>87</v>
@@ -14784,7 +14794,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>141</v>
@@ -14804,7 +14814,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <f>EDATE(A473,1)</f>
         <v>43525</v>
@@ -14829,7 +14839,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <f t="shared" ref="A477:A484" si="14">EDATE(A476,1)</f>
         <v>43556</v>
@@ -14856,7 +14866,7 @@
         <v>43560</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>376</v>
@@ -14874,12 +14884,12 @@
       <c r="H478" s="39"/>
       <c r="I478" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>62.708999999999889</v>
+        <v>61.958999999999889</v>
       </c>
       <c r="J478" s="11"/>
       <c r="K478" s="51"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <f>EDATE(A477,1)</f>
         <v>43586</v>
@@ -14904,7 +14914,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <f t="shared" si="14"/>
         <v>43617</v>
@@ -14929,7 +14939,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <f t="shared" si="14"/>
         <v>43647</v>
@@ -14954,7 +14964,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <f t="shared" si="14"/>
         <v>43678</v>
@@ -14979,7 +14989,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <f t="shared" si="14"/>
         <v>43709</v>
@@ -15004,7 +15014,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <f t="shared" si="14"/>
         <v>43739</v>
@@ -15029,7 +15039,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>383</v>
@@ -15049,7 +15059,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="49"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <f>EDATE(A484,1)</f>
         <v>43770</v>
@@ -15074,7 +15084,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <f>EDATE(A486,1)</f>
         <v>43800</v>
@@ -15099,7 +15109,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>388</v>
@@ -15119,7 +15129,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>389</v>
@@ -15139,7 +15149,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="48" t="s">
         <v>391</v>
       </c>
@@ -15157,7 +15167,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <f>EDATE(A487,1)</f>
         <v>43831</v>
@@ -15182,7 +15192,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>63</v>
@@ -15202,7 +15212,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>395</v>
@@ -15222,7 +15232,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="52"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>92</v>
@@ -15244,7 +15254,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <f>EDATE(A491,1)</f>
         <v>43862</v>
@@ -15269,7 +15279,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <f t="shared" ref="A496:A504" si="15">EDATE(A495,1)</f>
         <v>43891</v>
@@ -15290,7 +15300,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <f t="shared" si="15"/>
         <v>43922</v>
@@ -15311,7 +15321,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <f t="shared" si="15"/>
         <v>43952</v>
@@ -15332,7 +15342,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <f t="shared" si="15"/>
         <v>43983</v>
@@ -15353,7 +15363,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <f t="shared" si="15"/>
         <v>44013</v>
@@ -15374,7 +15384,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <f t="shared" si="15"/>
         <v>44044</v>
@@ -15395,7 +15405,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <f t="shared" si="15"/>
         <v>44075</v>
@@ -15416,7 +15426,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <f>EDATE(A502,1)</f>
         <v>44105</v>
@@ -15437,7 +15447,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <f t="shared" si="15"/>
         <v>44136</v>
@@ -15458,7 +15468,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <f>EDATE(A504,1)</f>
         <v>44166</v>
@@ -15483,7 +15493,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="48" t="s">
         <v>398</v>
       </c>
@@ -15501,7 +15511,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <f>EDATE(A505,1)</f>
         <v>44197</v>
@@ -15522,7 +15532,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <f>EDATE(A507,1)</f>
         <v>44228</v>
@@ -15543,7 +15553,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <f t="shared" ref="A509:A518" si="16">EDATE(A508,1)</f>
         <v>44256</v>
@@ -15564,7 +15574,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <f t="shared" si="16"/>
         <v>44287</v>
@@ -15585,7 +15595,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <f t="shared" si="16"/>
         <v>44317</v>
@@ -15606,7 +15616,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <f t="shared" si="16"/>
         <v>44348</v>
@@ -15627,7 +15637,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <f t="shared" si="16"/>
         <v>44378</v>
@@ -15648,7 +15658,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <f t="shared" si="16"/>
         <v>44409</v>
@@ -15669,7 +15679,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <f t="shared" si="16"/>
         <v>44440</v>
@@ -15690,7 +15700,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <f t="shared" si="16"/>
         <v>44470</v>
@@ -15711,7 +15721,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <f t="shared" si="16"/>
         <v>44501</v>
@@ -15732,7 +15742,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <f t="shared" si="16"/>
         <v>44531</v>
@@ -15757,7 +15767,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>47</v>
@@ -15777,7 +15787,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="48" t="s">
         <v>400</v>
       </c>
@@ -15795,7 +15805,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <f>EDATE(A518,1)</f>
         <v>44562</v>
@@ -15816,7 +15826,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <f>EDATE(A521,1)</f>
         <v>44593</v>
@@ -15837,7 +15847,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <f t="shared" ref="A523:A528" si="17">EDATE(A522,1)</f>
         <v>44621</v>
@@ -15858,7 +15868,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <f t="shared" si="17"/>
         <v>44652</v>
@@ -15885,7 +15895,7 @@
         <v>44665</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>62</v>
@@ -15904,7 +15914,7 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <f>EDATE(A524,1)</f>
         <v>44682</v>
@@ -15925,7 +15935,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <f t="shared" si="17"/>
         <v>44713</v>
@@ -15946,7 +15956,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <f t="shared" si="17"/>
         <v>44743</v>
@@ -15973,7 +15983,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>44774</v>
       </c>
@@ -15993,7 +16003,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>44805</v>
       </c>
@@ -16013,7 +16023,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>44835</v>
       </c>
@@ -16039,7 +16049,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>389</v>
@@ -16061,7 +16071,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>44866</v>
       </c>
@@ -16081,7 +16091,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>44896</v>
       </c>
@@ -16105,7 +16115,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="48" t="s">
         <v>404</v>
       </c>
@@ -16123,7 +16133,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>44927</v>
       </c>
@@ -16149,7 +16159,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>68</v>
@@ -16171,7 +16181,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>44958</v>
       </c>
@@ -16197,7 +16207,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>87</v>
@@ -16217,7 +16227,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <v>44986</v>
       </c>
@@ -16243,7 +16253,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>68</v>
@@ -16265,7 +16275,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>45017</v>
       </c>
@@ -16291,25 +16301,33 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <v>45047</v>
       </c>
-      <c r="B543" s="20"/>
-      <c r="C543" s="13"/>
+      <c r="B543" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C543" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D543" s="39"/>
       <c r="E543" s="9"/>
       <c r="F543" s="20"/>
-      <c r="G543" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H543" s="39"/>
+      <c r="G543" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H543" s="39">
+        <v>2</v>
+      </c>
       <c r="I543" s="9"/>
       <c r="J543" s="11"/>
-      <c r="K543" s="20"/>
-    </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K543" s="20" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>45078</v>
       </c>
@@ -16327,7 +16345,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>45108</v>
       </c>
@@ -16345,7 +16363,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>45139</v>
       </c>
@@ -16363,7 +16381,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>45170</v>
       </c>
@@ -16381,7 +16399,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>45200</v>
       </c>
@@ -16399,7 +16417,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <v>45231</v>
       </c>
@@ -16417,7 +16435,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>45261</v>
       </c>
@@ -16435,7 +16453,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <v>45292</v>
       </c>
@@ -16453,7 +16471,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>45323</v>
       </c>
@@ -16471,7 +16489,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <v>45352</v>
       </c>
@@ -16489,7 +16507,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>45383</v>
       </c>
@@ -16507,7 +16525,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <v>45413</v>
       </c>
@@ -16525,7 +16543,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <v>45444</v>
       </c>
@@ -16543,7 +16561,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <v>45474</v>
       </c>
@@ -16561,7 +16579,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>45505</v>
       </c>
@@ -16579,7 +16597,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <v>45536</v>
       </c>
@@ -16597,7 +16615,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <v>45566</v>
       </c>
@@ -16615,7 +16633,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>45597</v>
       </c>
@@ -16633,7 +16651,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <v>45627</v>
       </c>
@@ -16651,7 +16669,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <v>45658</v>
       </c>
@@ -16669,7 +16687,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <v>45689</v>
       </c>
@@ -16687,7 +16705,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <v>45717</v>
       </c>
@@ -16705,7 +16723,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <v>45748</v>
       </c>
@@ -16723,7 +16741,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>45778</v>
       </c>
@@ -16741,7 +16759,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <v>45809</v>
       </c>
@@ -16759,7 +16777,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16775,7 +16793,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16791,7 +16809,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16807,7 +16825,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16823,7 +16841,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16839,7 +16857,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -16855,7 +16873,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -16871,7 +16889,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -16887,7 +16905,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16903,7 +16921,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16919,7 +16937,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="41"/>
       <c r="B579" s="15"/>
       <c r="C579" s="42"/>
@@ -16950,10 +16968,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16979,7 +16997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -16987,21 +17005,21 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
@@ -17014,7 +17032,7 @@
       <c r="K1" s="65"/>
       <c r="L1" s="65"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17043,7 +17061,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -17067,17 +17085,17 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -17098,7 +17116,7 @@
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -17125,7 +17143,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17151,7 +17169,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -17177,7 +17195,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -17203,7 +17221,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -17229,7 +17247,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -17255,7 +17273,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -17281,7 +17299,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -17307,7 +17325,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -17327,7 +17345,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -17347,7 +17365,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -17367,7 +17385,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -17388,7 +17406,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17409,7 +17427,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17430,7 +17448,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17451,7 +17469,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17472,7 +17490,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17493,7 +17511,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17514,7 +17532,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17535,7 +17553,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17556,7 +17574,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17577,7 +17595,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17598,7 +17616,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17619,7 +17637,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17640,7 +17658,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17661,7 +17679,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17682,7 +17700,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17703,7 +17721,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17724,7 +17742,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17745,7 +17763,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17766,7 +17784,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17787,7 +17805,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17796,7 +17814,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17805,7 +17823,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17814,7 +17832,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17823,7 +17841,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17832,7 +17850,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17841,7 +17859,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17850,7 +17868,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17859,7 +17877,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17868,7 +17886,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17877,7 +17895,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17886,7 +17904,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17895,7 +17913,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17904,7 +17922,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17913,7 +17931,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17922,7 +17940,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17931,7 +17949,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17940,7 +17958,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17949,7 +17967,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17958,7 +17976,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17967,7 +17985,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17976,7 +17994,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17985,7 +18003,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17994,7 +18012,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18003,7 +18021,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18012,7 +18030,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18021,7 +18039,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18030,7 +18048,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18039,7 +18057,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18048,7 +18066,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/ZALDIVIA, MIRIAM F..xlsx
+++ b/REGULAR/OJT/NEW DONE/ZALDIVIA, MIRIAM F..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF38B9DA-4874-491B-88D0-3BAFEC8D4585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="601" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="601" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="415">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1285,7 +1284,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1687,6 +1686,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1722,12 +1727,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2177,7 +2176,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2220,7 +2219,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2284,7 +2283,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2344,7 +2343,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2410,7 +2409,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2473,7 +2472,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2571,7 +2570,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2630,7 +2629,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2695,7 +2694,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2738,7 +2737,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2813,7 +2812,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2999,7 +2998,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3065,7 +3064,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3123,7 +3122,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3189,7 +3188,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3245,7 +3244,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3320,7 +3319,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3363,7 +3362,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3429,7 +3428,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3485,7 +3484,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3583,7 +3582,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3646,7 +3645,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3695,7 +3694,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3712,25 +3711,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K579" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K580" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3742,13 +3741,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3757,14 +3756,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4068,7 +4067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4078,7 +4077,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4086,95 +4085,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K579"/>
+  <dimension ref="A2:K580"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3504" topLeftCell="A4" activePane="bottomLeft"/>
+      <pane ySplit="3510" topLeftCell="A532" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="K546" sqref="K546"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="57" t="s">
         <v>412</v>
       </c>
-      <c r="C2" s="55"/>
+      <c r="C2" s="57"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="57"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="58"/>
+      <c r="K2" s="59"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="60"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="62"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="60"/>
+      <c r="K3" s="61"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="55"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="62" t="s">
         <v>409</v>
       </c>
-      <c r="G4" s="60"/>
+      <c r="G4" s="62"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="61"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="62"/>
+      <c r="K4" s="63"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4182,7 +4181,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4195,24 +4194,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4247,7 +4246,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4266,12 +4265,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>61.958999999999889</v>
+        <v>59.958999999999889</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -4293,7 +4292,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>34612</v>
       </c>
@@ -4313,7 +4312,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>34639</v>
       </c>
@@ -4333,7 +4332,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>34669</v>
@@ -4354,7 +4353,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>44</v>
       </c>
@@ -4372,7 +4371,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f>EDATE(A13,1)</f>
         <v>34700</v>
@@ -4393,7 +4392,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <f>EDATE(A15,1)</f>
         <v>34731</v>
@@ -4414,7 +4413,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <f t="shared" ref="A17:A26" si="0">EDATE(A16,1)</f>
         <v>34759</v>
@@ -4435,7 +4434,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>34790</v>
@@ -4456,7 +4455,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>34820</v>
@@ -4477,7 +4476,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>34851</v>
@@ -4498,7 +4497,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>34881</v>
@@ -4519,7 +4518,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>34912</v>
@@ -4546,7 +4545,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>34943</v>
@@ -4567,7 +4566,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>34973</v>
@@ -4588,7 +4587,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <f>EDATE(A24,1)</f>
         <v>35004</v>
@@ -4609,7 +4608,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>35034</v>
@@ -4634,7 +4633,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
         <v>48</v>
       </c>
@@ -4652,7 +4651,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f>EDATE(A26,1)</f>
         <v>35065</v>
@@ -4673,7 +4672,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f>EDATE(A28,1)</f>
         <v>35096</v>
@@ -4694,7 +4693,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f t="shared" ref="A30:A40" si="1">EDATE(A29,1)</f>
         <v>35125</v>
@@ -4715,7 +4714,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>35156</v>
@@ -4736,7 +4735,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f t="shared" si="1"/>
         <v>35186</v>
@@ -4757,7 +4756,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>35217</v>
@@ -4778,7 +4777,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" si="1"/>
         <v>35247</v>
@@ -4799,7 +4798,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" si="1"/>
         <v>35278</v>
@@ -4826,7 +4825,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f>EDATE(A35,1)</f>
         <v>35309</v>
@@ -4853,7 +4852,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>58</v>
@@ -4875,7 +4874,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f>EDATE(A36,1)</f>
         <v>35339</v>
@@ -4896,7 +4895,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f t="shared" si="1"/>
         <v>35370</v>
@@ -4917,7 +4916,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" si="1"/>
         <v>35400</v>
@@ -4938,7 +4937,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
         <v>49</v>
       </c>
@@ -4956,7 +4955,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>35431</v>
@@ -4977,7 +4976,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f>EDATE(A42,1)</f>
         <v>35462</v>
@@ -4998,7 +4997,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f t="shared" ref="A44:A55" si="2">EDATE(A43,1)</f>
         <v>35490</v>
@@ -5019,7 +5018,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>35521</v>
@@ -5040,7 +5039,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f t="shared" si="2"/>
         <v>35551</v>
@@ -5061,7 +5060,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>35582</v>
@@ -5088,7 +5087,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>62</v>
@@ -5110,7 +5109,7 @@
         <v>35607</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f>EDATE(A47,1)</f>
         <v>35612</v>
@@ -5131,7 +5130,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f t="shared" si="2"/>
         <v>35643</v>
@@ -5152,7 +5151,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>35674</v>
@@ -5177,7 +5176,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>62</v>
@@ -5199,7 +5198,7 @@
         <v>35703</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f>EDATE(A51,1)</f>
         <v>35704</v>
@@ -5226,7 +5225,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f>EDATE(A53,1)</f>
         <v>35735</v>
@@ -5247,7 +5246,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="2"/>
         <v>35765</v>
@@ -5272,7 +5271,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="48" t="s">
         <v>50</v>
       </c>
@@ -5290,7 +5289,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f>EDATE(A55,1)</f>
         <v>35796</v>
@@ -5311,7 +5310,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f>EDATE(A57,1)</f>
         <v>35827</v>
@@ -5338,7 +5337,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" ref="A59:A69" si="3">EDATE(A58,1)</f>
         <v>35855</v>
@@ -5359,7 +5358,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f t="shared" si="3"/>
         <v>35886</v>
@@ -5380,7 +5379,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>35916</v>
@@ -5407,7 +5406,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <f t="shared" si="3"/>
         <v>35947</v>
@@ -5434,7 +5433,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f t="shared" si="3"/>
         <v>35977</v>
@@ -5455,7 +5454,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f t="shared" si="3"/>
         <v>36008</v>
@@ -5482,7 +5481,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>73</v>
@@ -5502,7 +5501,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f>EDATE(A64,1)</f>
         <v>36039</v>
@@ -5527,7 +5526,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f t="shared" si="3"/>
         <v>36069</v>
@@ -5552,7 +5551,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="3"/>
         <v>36100</v>
@@ -5577,7 +5576,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f t="shared" si="3"/>
         <v>36130</v>
@@ -5599,12 +5598,12 @@
         <v>5</v>
       </c>
       <c r="I69" s="9"/>
-      <c r="J69" s="66"/>
-      <c r="K69" s="67" t="s">
+      <c r="J69" s="54"/>
+      <c r="K69" s="55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>76</v>
@@ -5624,7 +5623,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>54</v>
@@ -5644,7 +5643,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
         <v>51</v>
       </c>
@@ -5662,7 +5661,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f>EDATE(A69,1)</f>
         <v>36161</v>
@@ -5689,7 +5688,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>62</v>
@@ -5711,7 +5710,7 @@
         <v>36189</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>81</v>
@@ -5731,7 +5730,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f>EDATE(A73,1)</f>
         <v>36192</v>
@@ -5752,7 +5751,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f t="shared" ref="A77:A90" si="4">EDATE(A76,1)</f>
         <v>36220</v>
@@ -5779,7 +5778,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f t="shared" si="4"/>
         <v>36251</v>
@@ -5806,7 +5805,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>85</v>
@@ -5826,7 +5825,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f>EDATE(A78,1)</f>
         <v>36281</v>
@@ -5851,7 +5850,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f>EDATE(A80,1)</f>
         <v>36312</v>
@@ -5878,7 +5877,7 @@
         <v>36313</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>87</v>
@@ -5898,7 +5897,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>87</v>
@@ -5918,7 +5917,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>90</v>
@@ -5940,7 +5939,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f>EDATE(A81,1)</f>
         <v>36342</v>
@@ -5961,7 +5960,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="4"/>
         <v>36373</v>
@@ -5982,7 +5981,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <f t="shared" si="4"/>
         <v>36404</v>
@@ -6009,7 +6008,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>94</v>
@@ -6029,7 +6028,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f>EDATE(A87,1)</f>
         <v>36434</v>
@@ -6050,7 +6049,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" si="4"/>
         <v>36465</v>
@@ -6071,7 +6070,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f>EDATE(A90,1)</f>
         <v>36495</v>
@@ -6096,7 +6095,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
         <v>52</v>
       </c>
@@ -6114,7 +6113,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f>EDATE(A91,1)</f>
         <v>36526</v>
@@ -6135,7 +6134,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f>EDATE(A93,1)</f>
         <v>36557</v>
@@ -6156,7 +6155,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" ref="A95:A104" si="5">EDATE(A94,1)</f>
         <v>36586</v>
@@ -6177,7 +6176,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="5"/>
         <v>36617</v>
@@ -6198,7 +6197,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="5"/>
         <v>36647</v>
@@ -6219,7 +6218,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="5"/>
         <v>36678</v>
@@ -6240,7 +6239,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="5"/>
         <v>36708</v>
@@ -6267,7 +6266,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <f t="shared" si="5"/>
         <v>36739</v>
@@ -6294,7 +6293,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f t="shared" si="5"/>
         <v>36770</v>
@@ -6315,7 +6314,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f t="shared" si="5"/>
         <v>36800</v>
@@ -6336,7 +6335,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f t="shared" si="5"/>
         <v>36831</v>
@@ -6357,7 +6356,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="5"/>
         <v>36861</v>
@@ -6382,7 +6381,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="48" t="s">
         <v>53</v>
       </c>
@@ -6400,7 +6399,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f>EDATE(A104,1)</f>
         <v>36892</v>
@@ -6421,7 +6420,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f>EDATE(A106,1)</f>
         <v>36923</v>
@@ -6442,7 +6441,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" ref="A108:A117" si="6">EDATE(A107,1)</f>
         <v>36951</v>
@@ -6469,7 +6468,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" si="6"/>
         <v>36982</v>
@@ -6490,7 +6489,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="6"/>
         <v>37012</v>
@@ -6517,7 +6516,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="6"/>
         <v>37043</v>
@@ -6542,7 +6541,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" si="6"/>
         <v>37073</v>
@@ -6563,7 +6562,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="6"/>
         <v>37104</v>
@@ -6584,7 +6583,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <f t="shared" si="6"/>
         <v>37135</v>
@@ -6605,7 +6604,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <f t="shared" si="6"/>
         <v>37165</v>
@@ -6626,7 +6625,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f t="shared" si="6"/>
         <v>37196</v>
@@ -6647,7 +6646,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" si="6"/>
         <v>37226</v>
@@ -6672,7 +6671,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="48" t="s">
         <v>100</v>
       </c>
@@ -6690,7 +6689,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>37257</v>
@@ -6711,7 +6710,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" ref="A120:A200" si="7">EDATE(A119,1)</f>
         <v>37288</v>
@@ -6732,7 +6731,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <f t="shared" si="7"/>
         <v>37316</v>
@@ -6753,7 +6752,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f t="shared" si="7"/>
         <v>37347</v>
@@ -6774,7 +6773,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f t="shared" si="7"/>
         <v>37377</v>
@@ -6795,7 +6794,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" si="7"/>
         <v>37408</v>
@@ -6816,7 +6815,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" si="7"/>
         <v>37438</v>
@@ -6843,7 +6842,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f t="shared" si="7"/>
         <v>37469</v>
@@ -6864,7 +6863,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f t="shared" si="7"/>
         <v>37500</v>
@@ -6891,7 +6890,7 @@
         <v>37501</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f t="shared" si="7"/>
         <v>37530</v>
@@ -6918,7 +6917,7 @@
         <v>37537</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="7"/>
         <v>37561</v>
@@ -6939,7 +6938,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f t="shared" si="7"/>
         <v>37591</v>
@@ -6964,7 +6963,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="48" t="s">
         <v>102</v>
       </c>
@@ -6982,7 +6981,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f>EDATE(A130,1)</f>
         <v>37622</v>
@@ -7003,7 +7002,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f t="shared" si="7"/>
         <v>37653</v>
@@ -7024,7 +7023,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f t="shared" si="7"/>
         <v>37681</v>
@@ -7051,7 +7050,7 @@
         <v>37704</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f t="shared" si="7"/>
         <v>37712</v>
@@ -7078,7 +7077,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f t="shared" si="7"/>
         <v>37742</v>
@@ -7099,7 +7098,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f t="shared" si="7"/>
         <v>37773</v>
@@ -7120,7 +7119,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f t="shared" si="7"/>
         <v>37803</v>
@@ -7141,7 +7140,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" si="7"/>
         <v>37834</v>
@@ -7162,7 +7161,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f t="shared" si="7"/>
         <v>37865</v>
@@ -7189,7 +7188,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>106</v>
@@ -7211,7 +7210,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f>EDATE(A140,1)</f>
         <v>37895</v>
@@ -7232,7 +7231,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f t="shared" si="7"/>
         <v>37926</v>
@@ -7253,7 +7252,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" si="7"/>
         <v>37956</v>
@@ -7274,7 +7273,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="48" t="s">
         <v>108</v>
       </c>
@@ -7292,7 +7291,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f>EDATE(A144,1)</f>
         <v>37987</v>
@@ -7315,7 +7314,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f t="shared" si="7"/>
         <v>38018</v>
@@ -7336,7 +7335,7 @@
       <c r="J147" s="12"/>
       <c r="K147" s="15"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" si="7"/>
         <v>38047</v>
@@ -7359,7 +7358,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" si="7"/>
         <v>38078</v>
@@ -7386,7 +7385,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f t="shared" si="7"/>
         <v>38108</v>
@@ -7413,7 +7412,7 @@
         <v>38131</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f t="shared" si="7"/>
         <v>38139</v>
@@ -7434,7 +7433,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f t="shared" si="7"/>
         <v>38169</v>
@@ -7461,7 +7460,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f t="shared" si="7"/>
         <v>38200</v>
@@ -7482,7 +7481,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f t="shared" si="7"/>
         <v>38231</v>
@@ -7509,7 +7508,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>62</v>
@@ -7531,7 +7530,7 @@
         <v>38246</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <f>EDATE(A154,1)</f>
         <v>38261</v>
@@ -7558,7 +7557,7 @@
         <v>38265</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>92</v>
@@ -7580,7 +7579,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>62</v>
@@ -7602,7 +7601,7 @@
         <v>38280</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f>EDATE(A156,1)</f>
         <v>38292</v>
@@ -7623,7 +7622,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f>EDATE(A159,1)</f>
         <v>38322</v>
@@ -7648,7 +7647,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="48" t="s">
         <v>112</v>
       </c>
@@ -7666,7 +7665,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f>EDATE(A160,1)</f>
         <v>38353</v>
@@ -7693,7 +7692,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <f t="shared" si="7"/>
         <v>38384</v>
@@ -7714,7 +7713,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <f t="shared" si="7"/>
         <v>38412</v>
@@ -7735,7 +7734,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f t="shared" si="7"/>
         <v>38443</v>
@@ -7762,7 +7761,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>87</v>
@@ -7782,7 +7781,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>68</v>
@@ -7804,7 +7803,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f>EDATE(A165,1)</f>
         <v>38473</v>
@@ -7831,7 +7830,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f t="shared" si="7"/>
         <v>38504</v>
@@ -7858,7 +7857,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <f t="shared" si="7"/>
         <v>38534</v>
@@ -7885,7 +7884,7 @@
         <v>38540</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f t="shared" si="7"/>
         <v>38565</v>
@@ -7912,7 +7911,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f t="shared" si="7"/>
         <v>38596</v>
@@ -7937,7 +7936,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <f t="shared" si="7"/>
         <v>38626</v>
@@ -7964,7 +7963,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>126</v>
@@ -7986,7 +7985,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f>EDATE(A173,1)</f>
         <v>38657</v>
@@ -8007,7 +8006,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f>EDATE(A175,1)</f>
         <v>38687</v>
@@ -8028,7 +8027,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="48" t="s">
         <v>128</v>
       </c>
@@ -8046,7 +8045,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f>EDATE(A176,1)</f>
         <v>38718</v>
@@ -8073,7 +8072,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>70</v>
@@ -8095,7 +8094,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>68</v>
@@ -8117,7 +8116,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f>EDATE(A178,1)</f>
         <v>38749</v>
@@ -8138,7 +8137,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f t="shared" si="7"/>
         <v>38777</v>
@@ -8165,7 +8164,7 @@
         <v>38779</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f t="shared" si="7"/>
         <v>38808</v>
@@ -8192,7 +8191,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f t="shared" si="7"/>
         <v>38838</v>
@@ -8219,7 +8218,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>87</v>
@@ -8239,7 +8238,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f>EDATE(A184,1)</f>
         <v>38869</v>
@@ -8260,7 +8259,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <f t="shared" si="7"/>
         <v>38899</v>
@@ -8287,7 +8286,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f t="shared" si="7"/>
         <v>38930</v>
@@ -8308,7 +8307,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f t="shared" si="7"/>
         <v>38961</v>
@@ -8335,7 +8334,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f t="shared" si="7"/>
         <v>38991</v>
@@ -8362,7 +8361,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>68</v>
@@ -8384,7 +8383,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>403</v>
@@ -8406,7 +8405,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f>EDATE(A190,1)</f>
         <v>39022</v>
@@ -8433,7 +8432,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f t="shared" si="7"/>
         <v>39052</v>
@@ -8458,7 +8457,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>92</v>
@@ -8480,7 +8479,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>58</v>
@@ -8502,7 +8501,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="48" t="s">
         <v>145</v>
       </c>
@@ -8520,7 +8519,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <f>EDATE(A194,1)</f>
         <v>39083</v>
@@ -8541,7 +8540,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <f t="shared" si="7"/>
         <v>39114</v>
@@ -8562,7 +8561,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f t="shared" si="7"/>
         <v>39142</v>
@@ -8589,7 +8588,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f>EDATE(A200,1)</f>
         <v>39173</v>
@@ -8616,7 +8615,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>62</v>
@@ -8638,7 +8637,7 @@
         <v>39185</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>148</v>
@@ -8660,7 +8659,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>87</v>
@@ -8680,7 +8679,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>104</v>
@@ -8702,7 +8701,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>62</v>
@@ -8724,7 +8723,7 @@
         <v>39202</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f>EDATE(A201,1)</f>
         <v>39203</v>
@@ -8745,7 +8744,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f t="shared" ref="A208:A352" si="8">EDATE(A207,1)</f>
         <v>39234</v>
@@ -8766,7 +8765,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f t="shared" si="8"/>
         <v>39264</v>
@@ -8793,7 +8792,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f t="shared" si="8"/>
         <v>39295</v>
@@ -8818,7 +8817,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>62</v>
@@ -8840,7 +8839,7 @@
         <v>39304</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f>EDATE(A210,1)</f>
         <v>39326</v>
@@ -8861,7 +8860,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" si="8"/>
         <v>39356</v>
@@ -8882,7 +8881,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f t="shared" si="8"/>
         <v>39387</v>
@@ -8909,7 +8908,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>62</v>
@@ -8931,7 +8930,7 @@
         <v>39402</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>155</v>
@@ -8951,7 +8950,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <f>EDATE(A214,1)</f>
         <v>39417</v>
@@ -8978,7 +8977,7 @@
         <v>39420</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>47</v>
@@ -9000,7 +8999,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="48" t="s">
         <v>158</v>
       </c>
@@ -9018,7 +9017,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="51"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f>EDATE(A217,1)</f>
         <v>39448</v>
@@ -9045,7 +9044,7 @@
         <v>39455</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>62</v>
@@ -9067,7 +9066,7 @@
         <v>39477</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f>EDATE(A220,1)</f>
         <v>39479</v>
@@ -9092,7 +9091,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f t="shared" si="8"/>
         <v>39508</v>
@@ -9113,7 +9112,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f t="shared" si="8"/>
         <v>39539</v>
@@ -9140,7 +9139,7 @@
         <v>39549</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>87</v>
@@ -9160,7 +9159,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f>EDATE(A224,1)</f>
         <v>39569</v>
@@ -9181,7 +9180,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f t="shared" si="8"/>
         <v>39600</v>
@@ -9202,7 +9201,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f t="shared" si="8"/>
         <v>39630</v>
@@ -9229,7 +9228,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>92</v>
@@ -9251,7 +9250,7 @@
         <v>39657</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>39661</v>
@@ -9272,7 +9271,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f t="shared" si="8"/>
         <v>39692</v>
@@ -9299,7 +9298,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <f t="shared" si="8"/>
         <v>39722</v>
@@ -9326,7 +9325,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>92</v>
@@ -9348,7 +9347,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f>EDATE(A232,1)</f>
         <v>39753</v>
@@ -9375,7 +9374,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>54</v>
@@ -9397,7 +9396,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f>EDATE(A234,1)</f>
         <v>39783</v>
@@ -9422,7 +9421,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>168</v>
@@ -9442,7 +9441,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>126</v>
@@ -9462,7 +9461,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="48" t="s">
         <v>169</v>
       </c>
@@ -9480,7 +9479,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f>EDATE(A236,1)</f>
         <v>39814</v>
@@ -9507,7 +9506,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>62</v>
@@ -9529,7 +9528,7 @@
         <v>39839</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>172</v>
@@ -9547,7 +9546,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f>EDATE(A240,1)</f>
         <v>39845</v>
@@ -9572,7 +9571,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>87</v>
@@ -9592,7 +9591,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f>EDATE(A243,1)</f>
         <v>39873</v>
@@ -9619,7 +9618,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>62</v>
@@ -9641,7 +9640,7 @@
         <v>39886</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>68</v>
@@ -9663,7 +9662,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>62</v>
@@ -9685,7 +9684,7 @@
         <v>39899</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>62</v>
@@ -9707,7 +9706,7 @@
         <v>39890</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>175</v>
@@ -9727,7 +9726,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f>EDATE(A245,1)</f>
         <v>39904</v>
@@ -9752,7 +9751,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f t="shared" si="8"/>
         <v>39934</v>
@@ -9779,7 +9778,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>62</v>
@@ -9799,7 +9798,7 @@
         <v>39955</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>62</v>
@@ -9819,7 +9818,7 @@
         <v>39960</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>180</v>
@@ -9839,7 +9838,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f>EDATE(A252,1)</f>
         <v>39965</v>
@@ -9866,7 +9865,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>181</v>
@@ -9886,7 +9885,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f>EDATE(A256,1)</f>
         <v>39995</v>
@@ -9911,7 +9910,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f t="shared" si="8"/>
         <v>40026</v>
@@ -9938,7 +9937,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>62</v>
@@ -9960,7 +9959,7 @@
         <v>40042</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>62</v>
@@ -9982,7 +9981,7 @@
         <v>40051</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>62</v>
@@ -10004,7 +10003,7 @@
         <v>40057</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>185</v>
@@ -10024,7 +10023,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="51"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f>EDATE(A259,1)</f>
         <v>40057</v>
@@ -10051,7 +10050,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>62</v>
@@ -10073,7 +10072,7 @@
         <v>40081</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>187</v>
@@ -10093,7 +10092,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f>EDATE(A264,1)</f>
         <v>40087</v>
@@ -10120,7 +10119,7 @@
         <v>40087</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>62</v>
@@ -10142,7 +10141,7 @@
         <v>40093</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>68</v>
@@ -10164,7 +10163,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>92</v>
@@ -10186,7 +10185,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>188</v>
@@ -10206,7 +10205,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f>EDATE(A267,1)</f>
         <v>40118</v>
@@ -10233,7 +10232,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>191</v>
@@ -10253,7 +10252,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>40148</v>
@@ -10280,7 +10279,7 @@
         <v>40151</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>68</v>
@@ -10299,7 +10298,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>87</v>
@@ -10316,7 +10315,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>106</v>
@@ -10335,7 +10334,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="48" t="s">
         <v>193</v>
       </c>
@@ -10350,7 +10349,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f>EDATE(A274,1)</f>
         <v>40179</v>
@@ -10375,7 +10374,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>104</v>
@@ -10394,7 +10393,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>92</v>
@@ -10413,7 +10412,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>68</v>
@@ -10432,7 +10431,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>92</v>
@@ -10451,7 +10450,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>87</v>
@@ -10468,7 +10467,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>199</v>
@@ -10485,7 +10484,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f>EDATE(A279,1)</f>
         <v>40210</v>
@@ -10510,7 +10509,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>62</v>
@@ -10529,7 +10528,7 @@
         <v>40224</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>205</v>
@@ -10546,7 +10545,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f>EDATE(A286,1)</f>
         <v>40238</v>
@@ -10573,7 +10572,7 @@
         <v>40249</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>62</v>
@@ -10592,7 +10591,7 @@
         <v>40254</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>104</v>
@@ -10614,7 +10613,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>207</v>
@@ -10631,7 +10630,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f>EDATE(A289,1)</f>
         <v>40269</v>
@@ -10656,7 +10655,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>87</v>
@@ -10673,7 +10672,7 @@
         <v>40296</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>68</v>
@@ -10690,7 +10689,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>208</v>
@@ -10707,7 +10706,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <f>EDATE(A293,1)</f>
         <v>40299</v>
@@ -10734,7 +10733,7 @@
         <v>40322</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>211</v>
@@ -10754,7 +10753,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f>EDATE(A297,1)</f>
         <v>40330</v>
@@ -10781,7 +10780,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>62</v>
@@ -10803,7 +10802,7 @@
         <v>40345</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>62</v>
@@ -10825,7 +10824,7 @@
         <v>40353</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>213</v>
@@ -10845,7 +10844,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="51"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f>EDATE(A299,1)</f>
         <v>40360</v>
@@ -10872,7 +10871,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>92</v>
@@ -10894,7 +10893,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>216</v>
@@ -10914,7 +10913,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f>EDATE(A303,1)</f>
         <v>40391</v>
@@ -10941,7 +10940,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>62</v>
@@ -10960,7 +10959,7 @@
         <v>40414</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>218</v>
@@ -10977,7 +10976,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <f>EDATE(A306,1)</f>
         <v>40422</v>
@@ -11006,7 +11005,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>220</v>
@@ -11025,7 +11024,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>222</v>
@@ -11042,7 +11041,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f>EDATE(A309,1)</f>
         <v>40452</v>
@@ -11071,7 +11070,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>220</v>
@@ -11090,7 +11089,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>226</v>
@@ -11107,7 +11106,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f>EDATE(A312,1)</f>
         <v>40483</v>
@@ -11136,7 +11135,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>220</v>
@@ -11155,7 +11154,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>229</v>
@@ -11172,7 +11171,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f>EDATE(A315,1)</f>
         <v>40513</v>
@@ -11197,7 +11196,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="48" t="s">
         <v>231</v>
       </c>
@@ -11215,7 +11214,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <f>EDATE(A318,1)</f>
         <v>40544</v>
@@ -11240,7 +11239,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>234</v>
@@ -11260,7 +11259,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f>EDATE(A320,1)</f>
         <v>40575</v>
@@ -11285,7 +11284,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>236</v>
@@ -11305,7 +11304,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <f>EDATE(A322,1)</f>
         <v>40603</v>
@@ -11330,7 +11329,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f t="shared" si="8"/>
         <v>40634</v>
@@ -11355,7 +11354,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <f t="shared" si="8"/>
         <v>40664</v>
@@ -11380,7 +11379,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f>EDATE(A326,1)</f>
         <v>40695</v>
@@ -11407,7 +11406,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>240</v>
@@ -11427,7 +11426,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f>EDATE(A327,1)</f>
         <v>40725</v>
@@ -11452,7 +11451,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f t="shared" si="8"/>
         <v>40756</v>
@@ -11477,7 +11476,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f t="shared" si="8"/>
         <v>40787</v>
@@ -11502,7 +11501,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f t="shared" si="8"/>
         <v>40817</v>
@@ -11527,7 +11526,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f t="shared" si="8"/>
         <v>40848</v>
@@ -11554,7 +11553,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>247</v>
@@ -11574,7 +11573,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f>EDATE(A333,1)</f>
         <v>40878</v>
@@ -11599,7 +11598,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="48" t="s">
         <v>249</v>
       </c>
@@ -11617,7 +11616,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <f>EDATE(A335,1)</f>
         <v>40909</v>
@@ -11644,7 +11643,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>250</v>
@@ -11661,7 +11660,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>251</v>
@@ -11678,7 +11677,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <f>EDATE(A337,1)</f>
         <v>40940</v>
@@ -11703,7 +11702,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <f t="shared" si="8"/>
         <v>40969</v>
@@ -11728,7 +11727,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f t="shared" si="8"/>
         <v>41000</v>
@@ -11753,7 +11752,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f t="shared" si="8"/>
         <v>41030</v>
@@ -11780,7 +11779,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>92</v>
@@ -11799,7 +11798,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>254</v>
@@ -11816,7 +11815,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f>EDATE(A343,1)</f>
         <v>41061</v>
@@ -11841,7 +11840,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <f t="shared" si="8"/>
         <v>41091</v>
@@ -11868,7 +11867,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>141</v>
@@ -11885,7 +11884,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>92</v>
@@ -11904,7 +11903,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>263</v>
@@ -11921,7 +11920,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <f>EDATE(A347,1)</f>
         <v>41122</v>
@@ -11946,7 +11945,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <f t="shared" si="8"/>
         <v>41153</v>
@@ -11971,7 +11970,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>266</v>
@@ -11991,7 +11990,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f>EDATE(A352,1)</f>
         <v>41183</v>
@@ -12016,7 +12015,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <f t="shared" ref="A355:A356" si="9">EDATE(A354,1)</f>
         <v>41214</v>
@@ -12037,7 +12036,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f t="shared" si="9"/>
         <v>41244</v>
@@ -12062,7 +12061,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="48" t="s">
         <v>269</v>
       </c>
@@ -12080,7 +12079,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <f>EDATE(A356,1)</f>
         <v>41275</v>
@@ -12105,7 +12104,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <f t="shared" ref="A359:A431" si="10">EDATE(A358,1)</f>
         <v>41306</v>
@@ -12130,7 +12129,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>68</v>
@@ -12152,7 +12151,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>92</v>
@@ -12174,7 +12173,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>274</v>
@@ -12194,7 +12193,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f>EDATE(A359,1)</f>
         <v>41334</v>
@@ -12219,7 +12218,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <f t="shared" si="10"/>
         <v>41365</v>
@@ -12246,7 +12245,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>278</v>
@@ -12266,7 +12265,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <f>EDATE(A364,1)</f>
         <v>41395</v>
@@ -12289,7 +12288,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>279</v>
@@ -12309,7 +12308,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <f>EDATE(A366,1)</f>
         <v>41426</v>
@@ -12336,7 +12335,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>281</v>
@@ -12356,7 +12355,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <f>EDATE(A368,1)</f>
         <v>41456</v>
@@ -12381,7 +12380,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <f t="shared" si="10"/>
         <v>41487</v>
@@ -12406,7 +12405,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f t="shared" si="10"/>
         <v>41518</v>
@@ -12431,7 +12430,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <f t="shared" si="10"/>
         <v>41548</v>
@@ -12456,7 +12455,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f t="shared" si="10"/>
         <v>41579</v>
@@ -12481,7 +12480,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <f t="shared" si="10"/>
         <v>41609</v>
@@ -12506,7 +12505,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="48" t="s">
         <v>282</v>
       </c>
@@ -12524,7 +12523,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f>EDATE(A375,1)</f>
         <v>41640</v>
@@ -12549,7 +12548,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <f t="shared" si="10"/>
         <v>41671</v>
@@ -12574,7 +12573,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <f t="shared" si="10"/>
         <v>41699</v>
@@ -12599,7 +12598,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <f t="shared" si="10"/>
         <v>41730</v>
@@ -12624,7 +12623,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <f t="shared" si="10"/>
         <v>41760</v>
@@ -12649,7 +12648,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <f t="shared" si="10"/>
         <v>41791</v>
@@ -12674,7 +12673,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <f t="shared" si="10"/>
         <v>41821</v>
@@ -12699,7 +12698,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <f t="shared" si="10"/>
         <v>41852</v>
@@ -12724,7 +12723,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <f t="shared" si="10"/>
         <v>41883</v>
@@ -12749,7 +12748,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <f t="shared" si="10"/>
         <v>41913</v>
@@ -12774,7 +12773,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f t="shared" si="10"/>
         <v>41944</v>
@@ -12799,7 +12798,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <f t="shared" si="10"/>
         <v>41974</v>
@@ -12824,7 +12823,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>304</v>
@@ -12846,7 +12845,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="48" t="s">
         <v>294</v>
       </c>
@@ -12864,7 +12863,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f>EDATE(A388,1)</f>
         <v>42005</v>
@@ -12889,7 +12888,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>62</v>
@@ -12911,7 +12910,7 @@
         <v>42019</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <f>EDATE(A391,1)</f>
         <v>42036</v>
@@ -12936,7 +12935,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>68</v>
@@ -12958,7 +12957,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f>EDATE(A393,1)</f>
         <v>42064</v>
@@ -12983,7 +12982,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <f t="shared" si="10"/>
         <v>42095</v>
@@ -13008,7 +13007,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>68</v>
@@ -13030,7 +13029,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <f>EDATE(A396,1)</f>
         <v>42125</v>
@@ -13055,7 +13054,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>75</v>
@@ -13077,7 +13076,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f>EDATE(A398,1)</f>
         <v>42156</v>
@@ -13102,7 +13101,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>104</v>
@@ -13124,7 +13123,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f>EDATE(A400,1)</f>
         <v>42186</v>
@@ -13149,7 +13148,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <f t="shared" si="10"/>
         <v>42217</v>
@@ -13174,7 +13173,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>45</v>
@@ -13196,7 +13195,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <f>EDATE(A403,1)</f>
         <v>42248</v>
@@ -13221,7 +13220,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>320</v>
@@ -13243,7 +13242,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f>EDATE(A405,1)</f>
         <v>42278</v>
@@ -13268,7 +13267,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>62</v>
@@ -13290,7 +13289,7 @@
         <v>42311</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <f>EDATE(A407,1)</f>
         <v>42309</v>
@@ -13315,7 +13314,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>324</v>
@@ -13337,7 +13336,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <f>EDATE(A409,1)</f>
         <v>42339</v>
@@ -13362,7 +13361,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="48" t="s">
         <v>302</v>
       </c>
@@ -13380,7 +13379,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <f>EDATE(A411,1)</f>
         <v>42370</v>
@@ -13405,7 +13404,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>75</v>
@@ -13427,7 +13426,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <f>EDATE(A413,1)</f>
         <v>42401</v>
@@ -13452,7 +13451,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>92</v>
@@ -13474,7 +13473,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>62</v>
@@ -13496,7 +13495,7 @@
         <v>42418</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <f>EDATE(A415,1)</f>
         <v>42430</v>
@@ -13521,7 +13520,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <f>EDATE(A418,1)</f>
         <v>42461</v>
@@ -13546,7 +13545,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <f t="shared" si="10"/>
         <v>42491</v>
@@ -13571,7 +13570,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f t="shared" si="10"/>
         <v>42522</v>
@@ -13596,7 +13595,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <f t="shared" si="10"/>
         <v>42552</v>
@@ -13621,7 +13620,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <f t="shared" si="10"/>
         <v>42583</v>
@@ -13646,7 +13645,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>337</v>
@@ -13666,7 +13665,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f>EDATE(A423,1)</f>
         <v>42614</v>
@@ -13691,7 +13690,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <f t="shared" si="10"/>
         <v>42644</v>
@@ -13718,7 +13717,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>62</v>
@@ -13740,7 +13739,7 @@
         <v>42654</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>68</v>
@@ -13762,7 +13761,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>341</v>
@@ -13782,7 +13781,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <f>EDATE(A426,1)</f>
         <v>42675</v>
@@ -13807,7 +13806,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <f t="shared" si="10"/>
         <v>42705</v>
@@ -13832,7 +13831,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="48" t="s">
         <v>303</v>
       </c>
@@ -13850,7 +13849,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <f>EDATE(A431,1)</f>
         <v>42736</v>
@@ -13871,7 +13870,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <f>EDATE(A433,1)</f>
         <v>42767</v>
@@ -13896,7 +13895,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <f t="shared" ref="A435:A452" si="11">EDATE(A434,1)</f>
         <v>42795</v>
@@ -13921,7 +13920,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <f t="shared" si="11"/>
         <v>42826</v>
@@ -13948,7 +13947,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>87</v>
@@ -13965,7 +13964,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>92</v>
@@ -13984,7 +13983,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>141</v>
@@ -14001,7 +14000,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>350</v>
@@ -14018,7 +14017,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <f>EDATE(A436,1)</f>
         <v>42856</v>
@@ -14043,7 +14042,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <f t="shared" si="11"/>
         <v>42887</v>
@@ -14070,7 +14069,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>62</v>
@@ -14089,7 +14088,7 @@
         <v>42916</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>353</v>
@@ -14106,7 +14105,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <f>EDATE(A442,1)</f>
         <v>42917</v>
@@ -14131,7 +14130,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <f t="shared" si="11"/>
         <v>42948</v>
@@ -14156,7 +14155,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <f t="shared" si="11"/>
         <v>42979</v>
@@ -14183,7 +14182,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>62</v>
@@ -14205,7 +14204,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>357</v>
@@ -14225,7 +14224,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="51"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <f>EDATE(A447,1)</f>
         <v>43009</v>
@@ -14250,7 +14249,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <f>EDATE(A450,1)</f>
         <v>43040</v>
@@ -14271,7 +14270,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <f t="shared" si="11"/>
         <v>43070</v>
@@ -14292,7 +14291,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="48" t="s">
         <v>359</v>
       </c>
@@ -14310,7 +14309,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <f>EDATE(A452,1)</f>
         <v>43101</v>
@@ -14337,7 +14336,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>62</v>
@@ -14357,7 +14356,7 @@
         <v>43108</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>63</v>
@@ -14377,7 +14376,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <f>EDATE(A454,1)</f>
         <v>43132</v>
@@ -14404,7 +14403,7 @@
         <v>43150</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <f>EDATE(A457,1)</f>
         <v>43160</v>
@@ -14425,7 +14424,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <f t="shared" ref="A459:A460" si="12">EDATE(A458,1)</f>
         <v>43191</v>
@@ -14446,7 +14445,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <f t="shared" si="12"/>
         <v>43221</v>
@@ -14473,7 +14472,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>62</v>
@@ -14495,7 +14494,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>363</v>
@@ -14515,7 +14514,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <f>EDATE(A460,1)</f>
         <v>43252</v>
@@ -14540,7 +14539,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <f>EDATE(A463,1)</f>
         <v>43282</v>
@@ -14565,7 +14564,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <f>EDATE(A464,1)</f>
         <v>43313</v>
@@ -14590,7 +14589,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <f t="shared" ref="A466:A470" si="13">EDATE(A465,1)</f>
         <v>43344</v>
@@ -14615,7 +14614,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <f t="shared" si="13"/>
         <v>43374</v>
@@ -14640,7 +14639,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="52" t="s">
         <v>386</v>
@@ -14660,7 +14659,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <f>EDATE(A467,1)</f>
         <v>43405</v>
@@ -14685,7 +14684,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <f t="shared" si="13"/>
         <v>43435</v>
@@ -14710,7 +14709,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="48" t="s">
         <v>371</v>
       </c>
@@ -14728,7 +14727,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <f>EDATE(A470,1)</f>
         <v>43466</v>
@@ -14749,7 +14748,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <f>EDATE(A472,1)</f>
         <v>43497</v>
@@ -14774,7 +14773,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>87</v>
@@ -14794,7 +14793,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>141</v>
@@ -14814,7 +14813,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <f>EDATE(A473,1)</f>
         <v>43525</v>
@@ -14839,7 +14838,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <f t="shared" ref="A477:A484" si="14">EDATE(A476,1)</f>
         <v>43556</v>
@@ -14866,7 +14865,7 @@
         <v>43560</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>376</v>
@@ -14884,12 +14883,12 @@
       <c r="H478" s="39"/>
       <c r="I478" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>61.958999999999889</v>
+        <v>59.958999999999889</v>
       </c>
       <c r="J478" s="11"/>
       <c r="K478" s="51"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <f>EDATE(A477,1)</f>
         <v>43586</v>
@@ -14914,7 +14913,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <f t="shared" si="14"/>
         <v>43617</v>
@@ -14939,7 +14938,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <f t="shared" si="14"/>
         <v>43647</v>
@@ -14964,7 +14963,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <f t="shared" si="14"/>
         <v>43678</v>
@@ -14989,7 +14988,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <f t="shared" si="14"/>
         <v>43709</v>
@@ -15014,7 +15013,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <f t="shared" si="14"/>
         <v>43739</v>
@@ -15039,7 +15038,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>383</v>
@@ -15059,7 +15058,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="49"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <f>EDATE(A484,1)</f>
         <v>43770</v>
@@ -15084,7 +15083,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <f>EDATE(A486,1)</f>
         <v>43800</v>
@@ -15109,7 +15108,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>388</v>
@@ -15129,7 +15128,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>389</v>
@@ -15149,7 +15148,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="48" t="s">
         <v>391</v>
       </c>
@@ -15167,7 +15166,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <f>EDATE(A487,1)</f>
         <v>43831</v>
@@ -15192,7 +15191,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>63</v>
@@ -15212,7 +15211,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>395</v>
@@ -15232,7 +15231,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="52"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>92</v>
@@ -15254,7 +15253,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <f>EDATE(A491,1)</f>
         <v>43862</v>
@@ -15279,7 +15278,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <f t="shared" ref="A496:A504" si="15">EDATE(A495,1)</f>
         <v>43891</v>
@@ -15300,7 +15299,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <f t="shared" si="15"/>
         <v>43922</v>
@@ -15321,7 +15320,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <f t="shared" si="15"/>
         <v>43952</v>
@@ -15342,7 +15341,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <f t="shared" si="15"/>
         <v>43983</v>
@@ -15363,7 +15362,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <f t="shared" si="15"/>
         <v>44013</v>
@@ -15384,7 +15383,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <f t="shared" si="15"/>
         <v>44044</v>
@@ -15405,7 +15404,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <f t="shared" si="15"/>
         <v>44075</v>
@@ -15426,7 +15425,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <f>EDATE(A502,1)</f>
         <v>44105</v>
@@ -15447,7 +15446,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <f t="shared" si="15"/>
         <v>44136</v>
@@ -15468,7 +15467,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <f>EDATE(A504,1)</f>
         <v>44166</v>
@@ -15493,7 +15492,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="48" t="s">
         <v>398</v>
       </c>
@@ -15511,7 +15510,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <f>EDATE(A505,1)</f>
         <v>44197</v>
@@ -15532,7 +15531,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <f>EDATE(A507,1)</f>
         <v>44228</v>
@@ -15553,7 +15552,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <f t="shared" ref="A509:A518" si="16">EDATE(A508,1)</f>
         <v>44256</v>
@@ -15574,7 +15573,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <f t="shared" si="16"/>
         <v>44287</v>
@@ -15595,7 +15594,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <f t="shared" si="16"/>
         <v>44317</v>
@@ -15616,7 +15615,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <f t="shared" si="16"/>
         <v>44348</v>
@@ -15637,7 +15636,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <f t="shared" si="16"/>
         <v>44378</v>
@@ -15658,7 +15657,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <f t="shared" si="16"/>
         <v>44409</v>
@@ -15679,7 +15678,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <f t="shared" si="16"/>
         <v>44440</v>
@@ -15700,7 +15699,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <f t="shared" si="16"/>
         <v>44470</v>
@@ -15721,7 +15720,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <f t="shared" si="16"/>
         <v>44501</v>
@@ -15742,7 +15741,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <f t="shared" si="16"/>
         <v>44531</v>
@@ -15767,7 +15766,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>47</v>
@@ -15787,7 +15786,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="48" t="s">
         <v>400</v>
       </c>
@@ -15805,7 +15804,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <f>EDATE(A518,1)</f>
         <v>44562</v>
@@ -15826,7 +15825,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <f>EDATE(A521,1)</f>
         <v>44593</v>
@@ -15847,7 +15846,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <f t="shared" ref="A523:A528" si="17">EDATE(A522,1)</f>
         <v>44621</v>
@@ -15868,7 +15867,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <f t="shared" si="17"/>
         <v>44652</v>
@@ -15895,7 +15894,7 @@
         <v>44665</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>62</v>
@@ -15914,7 +15913,7 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <f>EDATE(A524,1)</f>
         <v>44682</v>
@@ -15935,7 +15934,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <f t="shared" si="17"/>
         <v>44713</v>
@@ -15956,7 +15955,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <f t="shared" si="17"/>
         <v>44743</v>
@@ -15983,7 +15982,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>44774</v>
       </c>
@@ -16003,7 +16002,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>44805</v>
       </c>
@@ -16023,7 +16022,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>44835</v>
       </c>
@@ -16049,7 +16048,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>389</v>
@@ -16071,7 +16070,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>44866</v>
       </c>
@@ -16091,7 +16090,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>44896</v>
       </c>
@@ -16115,7 +16114,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="48" t="s">
         <v>404</v>
       </c>
@@ -16133,7 +16132,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>44927</v>
       </c>
@@ -16159,7 +16158,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>68</v>
@@ -16181,7 +16180,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>44958</v>
       </c>
@@ -16207,7 +16206,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>87</v>
@@ -16227,7 +16226,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>44986</v>
       </c>
@@ -16253,7 +16252,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>68</v>
@@ -16275,7 +16274,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>45017</v>
       </c>
@@ -16301,7 +16300,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>45047</v>
       </c>
@@ -16327,11 +16326,13 @@
         <v>414</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>45078</v>
       </c>
-      <c r="B544" s="20"/>
+      <c r="B544" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C544" s="13"/>
       <c r="D544" s="39"/>
       <c r="E544" s="9"/>
@@ -16340,16 +16341,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H544" s="39"/>
+      <c r="H544" s="39">
+        <v>1</v>
+      </c>
       <c r="I544" s="9"/>
       <c r="J544" s="11"/>
-      <c r="K544" s="20"/>
-    </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A545" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B545" s="20"/>
+      <c r="K544" s="51">
+        <v>45084</v>
+      </c>
+    </row>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A545" s="40"/>
+      <c r="B545" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C545" s="13"/>
       <c r="D545" s="39"/>
       <c r="E545" s="9"/>
@@ -16358,14 +16363,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H545" s="39"/>
+      <c r="H545" s="39">
+        <v>1</v>
+      </c>
       <c r="I545" s="9"/>
       <c r="J545" s="11"/>
-      <c r="K545" s="20"/>
-    </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K545" s="51">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -16381,9 +16390,9 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -16399,9 +16408,9 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -16417,9 +16426,9 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -16435,9 +16444,9 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -16453,9 +16462,9 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -16471,9 +16480,9 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -16489,9 +16498,9 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -16507,9 +16516,9 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -16525,9 +16534,9 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -16543,9 +16552,9 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -16561,9 +16570,9 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -16579,9 +16588,9 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -16597,9 +16606,9 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -16615,9 +16624,9 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -16633,9 +16642,9 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -16651,9 +16660,9 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -16669,9 +16678,9 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -16687,9 +16696,9 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -16705,9 +16714,9 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16723,9 +16732,9 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -16741,9 +16750,9 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -16759,9 +16768,9 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16777,8 +16786,10 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A569" s="40"/>
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A569" s="40">
+        <v>45809</v>
+      </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
       <c r="D569" s="39"/>
@@ -16793,7 +16804,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16809,7 +16820,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16825,7 +16836,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16841,7 +16852,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16857,7 +16868,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -16873,7 +16884,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -16889,7 +16900,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -16905,7 +16916,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16921,7 +16932,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16937,21 +16948,37 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A579" s="41"/>
-      <c r="B579" s="15"/>
-      <c r="C579" s="42"/>
-      <c r="D579" s="43"/>
-      <c r="E579" s="50"/>
-      <c r="F579" s="15"/>
-      <c r="G579" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H579" s="43"/>
-      <c r="I579" s="50"/>
-      <c r="J579" s="12"/>
-      <c r="K579" s="15"/>
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A579" s="40"/>
+      <c r="B579" s="20"/>
+      <c r="C579" s="13"/>
+      <c r="D579" s="39"/>
+      <c r="E579" s="9"/>
+      <c r="F579" s="20"/>
+      <c r="G579" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H579" s="39"/>
+      <c r="I579" s="9"/>
+      <c r="J579" s="11"/>
+      <c r="K579" s="20"/>
+    </row>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A580" s="41"/>
+      <c r="B580" s="15"/>
+      <c r="C580" s="42"/>
+      <c r="D580" s="43"/>
+      <c r="E580" s="50"/>
+      <c r="F580" s="15"/>
+      <c r="G580" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H580" s="43"/>
+      <c r="I580" s="50"/>
+      <c r="J580" s="12"/>
+      <c r="K580" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16968,10 +16995,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16997,7 +17024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -17005,34 +17032,34 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="64" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="J1" s="65" t="s">
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="J1" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17061,7 +17088,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -17085,17 +17112,17 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -17109,14 +17136,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -17143,7 +17170,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17169,7 +17196,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -17195,7 +17222,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -17221,7 +17248,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -17247,7 +17274,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -17273,7 +17300,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -17299,7 +17326,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -17325,7 +17352,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -17345,7 +17372,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -17365,7 +17392,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -17385,7 +17412,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -17406,7 +17433,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17427,7 +17454,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17448,7 +17475,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17469,7 +17496,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17490,7 +17517,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17511,7 +17538,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17532,7 +17559,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17553,7 +17580,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17574,7 +17601,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17595,7 +17622,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17616,7 +17643,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17637,7 +17664,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17658,7 +17685,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17679,7 +17706,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17700,7 +17727,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17721,7 +17748,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17742,7 +17769,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17763,7 +17790,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17784,7 +17811,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17805,7 +17832,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17814,7 +17841,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17823,7 +17850,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17832,7 +17859,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17841,7 +17868,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17850,7 +17877,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17859,7 +17886,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17868,7 +17895,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17877,7 +17904,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17886,7 +17913,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17895,7 +17922,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17904,7 +17931,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17913,7 +17940,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17922,7 +17949,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17931,7 +17958,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17940,7 +17967,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17949,7 +17976,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17958,7 +17985,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17967,7 +17994,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17976,7 +18003,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17985,7 +18012,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17994,7 +18021,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18003,7 +18030,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18012,7 +18039,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18021,7 +18048,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18030,7 +18057,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18039,7 +18066,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18048,7 +18075,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18057,7 +18084,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18066,7 +18093,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/ZALDIVIA, MIRIAM F..xlsx
+++ b/REGULAR/OJT/NEW DONE/ZALDIVIA, MIRIAM F..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1978DC2A-B2E1-44D7-9224-2E92BB34CF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" tabRatio="601" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="601" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="415">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1284,7 +1285,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2176,7 +2177,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2219,7 +2220,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2283,7 +2284,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,7 +2344,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2409,7 +2410,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2473,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2570,7 +2571,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2629,7 +2630,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2694,7 +2695,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2737,7 +2738,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2812,7 +2813,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2998,7 +2999,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3064,7 +3065,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3122,7 +3123,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3188,7 +3189,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3244,7 +3245,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3319,7 +3320,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3362,7 +3363,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3428,7 +3429,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3484,7 +3485,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3582,7 +3583,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3645,7 +3646,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3694,7 +3695,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3711,25 +3712,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K580" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K582" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3741,13 +3742,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3756,14 +3757,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4067,7 +4068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -4077,7 +4078,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4085,34 +4086,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K580"/>
+  <dimension ref="A2:K582"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3510" topLeftCell="A532" activePane="bottomLeft"/>
+      <pane ySplit="3516" topLeftCell="A537" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="K546" sqref="K546"/>
+      <selection pane="bottomLeft" activeCell="B548" sqref="B548"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="26.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4133,7 +4134,7 @@
       <c r="J2" s="58"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4151,7 +4152,7 @@
       <c r="J3" s="60"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4173,7 +4174,7 @@
       <c r="J4" s="62"/>
       <c r="K4" s="63"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4181,7 +4182,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4194,7 +4195,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="56" t="s">
@@ -4211,7 +4212,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4246,7 +4247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4255,7 +4256,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>2.9149999999998499</v>
+        <v>4.1649999999998499</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4265,12 +4266,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>59.958999999999889</v>
+        <v>60.208999999999889</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -4292,7 +4293,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>34612</v>
       </c>
@@ -4312,7 +4313,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>34639</v>
       </c>
@@ -4332,7 +4333,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>34669</v>
@@ -4353,7 +4354,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="48" t="s">
         <v>44</v>
       </c>
@@ -4371,7 +4372,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f>EDATE(A13,1)</f>
         <v>34700</v>
@@ -4392,7 +4393,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <f>EDATE(A15,1)</f>
         <v>34731</v>
@@ -4413,7 +4414,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <f t="shared" ref="A17:A26" si="0">EDATE(A16,1)</f>
         <v>34759</v>
@@ -4434,7 +4435,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <f t="shared" si="0"/>
         <v>34790</v>
@@ -4455,7 +4456,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <f t="shared" si="0"/>
         <v>34820</v>
@@ -4476,7 +4477,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <f t="shared" si="0"/>
         <v>34851</v>
@@ -4497,7 +4498,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <f t="shared" si="0"/>
         <v>34881</v>
@@ -4518,7 +4519,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <f t="shared" si="0"/>
         <v>34912</v>
@@ -4545,7 +4546,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="41">
         <f t="shared" si="0"/>
         <v>34943</v>
@@ -4566,7 +4567,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <f t="shared" si="0"/>
         <v>34973</v>
@@ -4587,7 +4588,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <f>EDATE(A24,1)</f>
         <v>35004</v>
@@ -4608,7 +4609,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <f t="shared" si="0"/>
         <v>35034</v>
@@ -4633,7 +4634,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="48" t="s">
         <v>48</v>
       </c>
@@ -4651,7 +4652,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f>EDATE(A26,1)</f>
         <v>35065</v>
@@ -4672,7 +4673,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f>EDATE(A28,1)</f>
         <v>35096</v>
@@ -4693,7 +4694,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f t="shared" ref="A30:A40" si="1">EDATE(A29,1)</f>
         <v>35125</v>
@@ -4714,7 +4715,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>35156</v>
@@ -4735,7 +4736,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f t="shared" si="1"/>
         <v>35186</v>
@@ -4756,7 +4757,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f t="shared" si="1"/>
         <v>35217</v>
@@ -4777,7 +4778,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f t="shared" si="1"/>
         <v>35247</v>
@@ -4798,7 +4799,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f t="shared" si="1"/>
         <v>35278</v>
@@ -4825,7 +4826,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f>EDATE(A35,1)</f>
         <v>35309</v>
@@ -4852,7 +4853,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>58</v>
@@ -4874,7 +4875,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f>EDATE(A36,1)</f>
         <v>35339</v>
@@ -4895,7 +4896,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f t="shared" si="1"/>
         <v>35370</v>
@@ -4916,7 +4917,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f t="shared" si="1"/>
         <v>35400</v>
@@ -4937,7 +4938,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="48" t="s">
         <v>49</v>
       </c>
@@ -4955,7 +4956,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>35431</v>
@@ -4976,7 +4977,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f>EDATE(A42,1)</f>
         <v>35462</v>
@@ -4997,7 +4998,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f t="shared" ref="A44:A55" si="2">EDATE(A43,1)</f>
         <v>35490</v>
@@ -5018,7 +5019,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>35521</v>
@@ -5039,7 +5040,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f t="shared" si="2"/>
         <v>35551</v>
@@ -5060,7 +5061,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f t="shared" si="2"/>
         <v>35582</v>
@@ -5087,7 +5088,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>62</v>
@@ -5109,7 +5110,7 @@
         <v>35607</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f>EDATE(A47,1)</f>
         <v>35612</v>
@@ -5130,7 +5131,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f t="shared" si="2"/>
         <v>35643</v>
@@ -5151,7 +5152,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>35674</v>
@@ -5176,7 +5177,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>62</v>
@@ -5198,7 +5199,7 @@
         <v>35703</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f>EDATE(A51,1)</f>
         <v>35704</v>
@@ -5225,7 +5226,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f>EDATE(A53,1)</f>
         <v>35735</v>
@@ -5246,7 +5247,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f t="shared" si="2"/>
         <v>35765</v>
@@ -5271,7 +5272,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="48" t="s">
         <v>50</v>
       </c>
@@ -5289,7 +5290,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f>EDATE(A55,1)</f>
         <v>35796</v>
@@ -5310,7 +5311,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f>EDATE(A57,1)</f>
         <v>35827</v>
@@ -5337,7 +5338,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f t="shared" ref="A59:A69" si="3">EDATE(A58,1)</f>
         <v>35855</v>
@@ -5358,7 +5359,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f t="shared" si="3"/>
         <v>35886</v>
@@ -5379,7 +5380,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>35916</v>
@@ -5406,7 +5407,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <f t="shared" si="3"/>
         <v>35947</v>
@@ -5433,7 +5434,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f t="shared" si="3"/>
         <v>35977</v>
@@ -5454,7 +5455,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f t="shared" si="3"/>
         <v>36008</v>
@@ -5481,7 +5482,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>73</v>
@@ -5501,7 +5502,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f>EDATE(A64,1)</f>
         <v>36039</v>
@@ -5526,7 +5527,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f t="shared" si="3"/>
         <v>36069</v>
@@ -5551,7 +5552,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f t="shared" si="3"/>
         <v>36100</v>
@@ -5576,7 +5577,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f t="shared" si="3"/>
         <v>36130</v>
@@ -5603,7 +5604,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>76</v>
@@ -5623,7 +5624,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>54</v>
@@ -5643,7 +5644,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="48" t="s">
         <v>51</v>
       </c>
@@ -5661,7 +5662,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f>EDATE(A69,1)</f>
         <v>36161</v>
@@ -5688,7 +5689,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>62</v>
@@ -5710,7 +5711,7 @@
         <v>36189</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>81</v>
@@ -5730,7 +5731,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <f>EDATE(A73,1)</f>
         <v>36192</v>
@@ -5751,7 +5752,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f t="shared" ref="A77:A90" si="4">EDATE(A76,1)</f>
         <v>36220</v>
@@ -5778,7 +5779,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f t="shared" si="4"/>
         <v>36251</v>
@@ -5805,7 +5806,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>85</v>
@@ -5825,7 +5826,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f>EDATE(A78,1)</f>
         <v>36281</v>
@@ -5850,7 +5851,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f>EDATE(A80,1)</f>
         <v>36312</v>
@@ -5877,7 +5878,7 @@
         <v>36313</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>87</v>
@@ -5897,7 +5898,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>87</v>
@@ -5917,7 +5918,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>90</v>
@@ -5939,7 +5940,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f>EDATE(A81,1)</f>
         <v>36342</v>
@@ -5960,7 +5961,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f t="shared" si="4"/>
         <v>36373</v>
@@ -5981,7 +5982,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <f t="shared" si="4"/>
         <v>36404</v>
@@ -6008,7 +6009,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>94</v>
@@ -6028,7 +6029,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f>EDATE(A87,1)</f>
         <v>36434</v>
@@ -6049,7 +6050,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f t="shared" si="4"/>
         <v>36465</v>
@@ -6070,7 +6071,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <f>EDATE(A90,1)</f>
         <v>36495</v>
@@ -6095,7 +6096,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="48" t="s">
         <v>52</v>
       </c>
@@ -6113,7 +6114,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <f>EDATE(A91,1)</f>
         <v>36526</v>
@@ -6134,7 +6135,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f>EDATE(A93,1)</f>
         <v>36557</v>
@@ -6155,7 +6156,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" ref="A95:A104" si="5">EDATE(A94,1)</f>
         <v>36586</v>
@@ -6176,7 +6177,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="5"/>
         <v>36617</v>
@@ -6197,7 +6198,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="5"/>
         <v>36647</v>
@@ -6218,7 +6219,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f t="shared" si="5"/>
         <v>36678</v>
@@ -6239,7 +6240,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f t="shared" si="5"/>
         <v>36708</v>
@@ -6266,7 +6267,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <f t="shared" si="5"/>
         <v>36739</v>
@@ -6293,7 +6294,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f t="shared" si="5"/>
         <v>36770</v>
@@ -6314,7 +6315,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f t="shared" si="5"/>
         <v>36800</v>
@@ -6335,7 +6336,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f t="shared" si="5"/>
         <v>36831</v>
@@ -6356,7 +6357,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f t="shared" si="5"/>
         <v>36861</v>
@@ -6381,7 +6382,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="48" t="s">
         <v>53</v>
       </c>
@@ -6399,7 +6400,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f>EDATE(A104,1)</f>
         <v>36892</v>
@@ -6420,7 +6421,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f>EDATE(A106,1)</f>
         <v>36923</v>
@@ -6441,7 +6442,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f t="shared" ref="A108:A117" si="6">EDATE(A107,1)</f>
         <v>36951</v>
@@ -6468,7 +6469,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f t="shared" si="6"/>
         <v>36982</v>
@@ -6489,7 +6490,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f t="shared" si="6"/>
         <v>37012</v>
@@ -6516,7 +6517,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f t="shared" si="6"/>
         <v>37043</v>
@@ -6541,7 +6542,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f t="shared" si="6"/>
         <v>37073</v>
@@ -6562,7 +6563,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f t="shared" si="6"/>
         <v>37104</v>
@@ -6583,7 +6584,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <f t="shared" si="6"/>
         <v>37135</v>
@@ -6604,7 +6605,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <f t="shared" si="6"/>
         <v>37165</v>
@@ -6625,7 +6626,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f t="shared" si="6"/>
         <v>37196</v>
@@ -6646,7 +6647,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f t="shared" si="6"/>
         <v>37226</v>
@@ -6671,7 +6672,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="48" t="s">
         <v>100</v>
       </c>
@@ -6689,7 +6690,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f>EDATE(A117,1)</f>
         <v>37257</v>
@@ -6710,7 +6711,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" ref="A120:A200" si="7">EDATE(A119,1)</f>
         <v>37288</v>
@@ -6731,7 +6732,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <f t="shared" si="7"/>
         <v>37316</v>
@@ -6752,7 +6753,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f t="shared" si="7"/>
         <v>37347</v>
@@ -6773,7 +6774,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f t="shared" si="7"/>
         <v>37377</v>
@@ -6794,7 +6795,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f t="shared" si="7"/>
         <v>37408</v>
@@ -6815,7 +6816,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f t="shared" si="7"/>
         <v>37438</v>
@@ -6842,7 +6843,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f t="shared" si="7"/>
         <v>37469</v>
@@ -6863,7 +6864,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f t="shared" si="7"/>
         <v>37500</v>
@@ -6890,7 +6891,7 @@
         <v>37501</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f t="shared" si="7"/>
         <v>37530</v>
@@ -6917,7 +6918,7 @@
         <v>37537</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f t="shared" si="7"/>
         <v>37561</v>
@@ -6938,7 +6939,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f t="shared" si="7"/>
         <v>37591</v>
@@ -6963,7 +6964,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="48" t="s">
         <v>102</v>
       </c>
@@ -6981,7 +6982,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f>EDATE(A130,1)</f>
         <v>37622</v>
@@ -7002,7 +7003,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <f t="shared" si="7"/>
         <v>37653</v>
@@ -7023,7 +7024,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f t="shared" si="7"/>
         <v>37681</v>
@@ -7050,7 +7051,7 @@
         <v>37704</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <f t="shared" si="7"/>
         <v>37712</v>
@@ -7077,7 +7078,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <f t="shared" si="7"/>
         <v>37742</v>
@@ -7098,7 +7099,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f t="shared" si="7"/>
         <v>37773</v>
@@ -7119,7 +7120,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f t="shared" si="7"/>
         <v>37803</v>
@@ -7140,7 +7141,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f t="shared" si="7"/>
         <v>37834</v>
@@ -7161,7 +7162,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f t="shared" si="7"/>
         <v>37865</v>
@@ -7188,7 +7189,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>106</v>
@@ -7210,7 +7211,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f>EDATE(A140,1)</f>
         <v>37895</v>
@@ -7231,7 +7232,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f t="shared" si="7"/>
         <v>37926</v>
@@ -7252,7 +7253,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" si="7"/>
         <v>37956</v>
@@ -7273,7 +7274,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="48" t="s">
         <v>108</v>
       </c>
@@ -7291,7 +7292,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f>EDATE(A144,1)</f>
         <v>37987</v>
@@ -7314,7 +7315,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f t="shared" si="7"/>
         <v>38018</v>
@@ -7335,7 +7336,7 @@
       <c r="J147" s="12"/>
       <c r="K147" s="15"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f t="shared" si="7"/>
         <v>38047</v>
@@ -7358,7 +7359,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <f t="shared" si="7"/>
         <v>38078</v>
@@ -7385,7 +7386,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f t="shared" si="7"/>
         <v>38108</v>
@@ -7412,7 +7413,7 @@
         <v>38131</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f t="shared" si="7"/>
         <v>38139</v>
@@ -7433,7 +7434,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f t="shared" si="7"/>
         <v>38169</v>
@@ -7460,7 +7461,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <f t="shared" si="7"/>
         <v>38200</v>
@@ -7481,7 +7482,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f t="shared" si="7"/>
         <v>38231</v>
@@ -7508,7 +7509,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>62</v>
@@ -7530,7 +7531,7 @@
         <v>38246</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <f>EDATE(A154,1)</f>
         <v>38261</v>
@@ -7557,7 +7558,7 @@
         <v>38265</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>92</v>
@@ -7579,7 +7580,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>62</v>
@@ -7601,7 +7602,7 @@
         <v>38280</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f>EDATE(A156,1)</f>
         <v>38292</v>
@@ -7622,7 +7623,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <f>EDATE(A159,1)</f>
         <v>38322</v>
@@ -7647,7 +7648,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="48" t="s">
         <v>112</v>
       </c>
@@ -7665,7 +7666,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f>EDATE(A160,1)</f>
         <v>38353</v>
@@ -7692,7 +7693,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <f t="shared" si="7"/>
         <v>38384</v>
@@ -7713,7 +7714,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <f t="shared" si="7"/>
         <v>38412</v>
@@ -7734,7 +7735,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f t="shared" si="7"/>
         <v>38443</v>
@@ -7761,7 +7762,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>87</v>
@@ -7781,7 +7782,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>68</v>
@@ -7803,7 +7804,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <f>EDATE(A165,1)</f>
         <v>38473</v>
@@ -7830,7 +7831,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <f t="shared" si="7"/>
         <v>38504</v>
@@ -7857,7 +7858,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <f t="shared" si="7"/>
         <v>38534</v>
@@ -7884,7 +7885,7 @@
         <v>38540</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f t="shared" si="7"/>
         <v>38565</v>
@@ -7911,7 +7912,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f t="shared" si="7"/>
         <v>38596</v>
@@ -7936,7 +7937,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <f t="shared" si="7"/>
         <v>38626</v>
@@ -7963,7 +7964,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>126</v>
@@ -7985,7 +7986,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <f>EDATE(A173,1)</f>
         <v>38657</v>
@@ -8006,7 +8007,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <f>EDATE(A175,1)</f>
         <v>38687</v>
@@ -8027,7 +8028,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="48" t="s">
         <v>128</v>
       </c>
@@ -8045,7 +8046,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <f>EDATE(A176,1)</f>
         <v>38718</v>
@@ -8072,7 +8073,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>70</v>
@@ -8094,7 +8095,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>68</v>
@@ -8116,7 +8117,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f>EDATE(A178,1)</f>
         <v>38749</v>
@@ -8137,7 +8138,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <f t="shared" si="7"/>
         <v>38777</v>
@@ -8164,7 +8165,7 @@
         <v>38779</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f t="shared" si="7"/>
         <v>38808</v>
@@ -8191,7 +8192,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <f t="shared" si="7"/>
         <v>38838</v>
@@ -8218,7 +8219,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>87</v>
@@ -8238,7 +8239,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f>EDATE(A184,1)</f>
         <v>38869</v>
@@ -8259,7 +8260,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <f t="shared" si="7"/>
         <v>38899</v>
@@ -8286,7 +8287,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <f t="shared" si="7"/>
         <v>38930</v>
@@ -8307,7 +8308,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f t="shared" si="7"/>
         <v>38961</v>
@@ -8334,7 +8335,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f t="shared" si="7"/>
         <v>38991</v>
@@ -8361,7 +8362,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>68</v>
@@ -8383,7 +8384,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>403</v>
@@ -8405,7 +8406,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f>EDATE(A190,1)</f>
         <v>39022</v>
@@ -8432,7 +8433,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <f t="shared" si="7"/>
         <v>39052</v>
@@ -8457,7 +8458,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>92</v>
@@ -8479,7 +8480,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>58</v>
@@ -8501,7 +8502,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="48" t="s">
         <v>145</v>
       </c>
@@ -8519,7 +8520,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <f>EDATE(A194,1)</f>
         <v>39083</v>
@@ -8540,7 +8541,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <f t="shared" si="7"/>
         <v>39114</v>
@@ -8561,7 +8562,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f t="shared" si="7"/>
         <v>39142</v>
@@ -8588,7 +8589,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <f>EDATE(A200,1)</f>
         <v>39173</v>
@@ -8615,7 +8616,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>62</v>
@@ -8637,7 +8638,7 @@
         <v>39185</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>148</v>
@@ -8659,7 +8660,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>87</v>
@@ -8679,7 +8680,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>104</v>
@@ -8701,7 +8702,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>62</v>
@@ -8723,7 +8724,7 @@
         <v>39202</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <f>EDATE(A201,1)</f>
         <v>39203</v>
@@ -8744,7 +8745,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <f t="shared" ref="A208:A352" si="8">EDATE(A207,1)</f>
         <v>39234</v>
@@ -8765,7 +8766,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <f t="shared" si="8"/>
         <v>39264</v>
@@ -8792,7 +8793,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <f t="shared" si="8"/>
         <v>39295</v>
@@ -8817,7 +8818,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>62</v>
@@ -8839,7 +8840,7 @@
         <v>39304</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <f>EDATE(A210,1)</f>
         <v>39326</v>
@@ -8860,7 +8861,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f t="shared" si="8"/>
         <v>39356</v>
@@ -8881,7 +8882,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f t="shared" si="8"/>
         <v>39387</v>
@@ -8908,7 +8909,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>62</v>
@@ -8930,7 +8931,7 @@
         <v>39402</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>155</v>
@@ -8950,7 +8951,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <f>EDATE(A214,1)</f>
         <v>39417</v>
@@ -8977,7 +8978,7 @@
         <v>39420</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>47</v>
@@ -8999,7 +9000,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="48" t="s">
         <v>158</v>
       </c>
@@ -9017,7 +9018,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="51"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f>EDATE(A217,1)</f>
         <v>39448</v>
@@ -9044,7 +9045,7 @@
         <v>39455</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>62</v>
@@ -9066,7 +9067,7 @@
         <v>39477</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f>EDATE(A220,1)</f>
         <v>39479</v>
@@ -9091,7 +9092,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f t="shared" si="8"/>
         <v>39508</v>
@@ -9112,7 +9113,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f t="shared" si="8"/>
         <v>39539</v>
@@ -9139,7 +9140,7 @@
         <v>39549</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>87</v>
@@ -9159,7 +9160,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f>EDATE(A224,1)</f>
         <v>39569</v>
@@ -9180,7 +9181,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f t="shared" si="8"/>
         <v>39600</v>
@@ -9201,7 +9202,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f t="shared" si="8"/>
         <v>39630</v>
@@ -9228,7 +9229,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>92</v>
@@ -9250,7 +9251,7 @@
         <v>39657</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>39661</v>
@@ -9271,7 +9272,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <f t="shared" si="8"/>
         <v>39692</v>
@@ -9298,7 +9299,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <f t="shared" si="8"/>
         <v>39722</v>
@@ -9325,7 +9326,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>92</v>
@@ -9347,7 +9348,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <f>EDATE(A232,1)</f>
         <v>39753</v>
@@ -9374,7 +9375,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>54</v>
@@ -9396,7 +9397,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f>EDATE(A234,1)</f>
         <v>39783</v>
@@ -9421,7 +9422,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>168</v>
@@ -9441,7 +9442,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>126</v>
@@ -9461,7 +9462,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="48" t="s">
         <v>169</v>
       </c>
@@ -9479,7 +9480,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f>EDATE(A236,1)</f>
         <v>39814</v>
@@ -9506,7 +9507,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>62</v>
@@ -9528,7 +9529,7 @@
         <v>39839</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>172</v>
@@ -9546,7 +9547,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <f>EDATE(A240,1)</f>
         <v>39845</v>
@@ -9571,7 +9572,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>87</v>
@@ -9591,7 +9592,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f>EDATE(A243,1)</f>
         <v>39873</v>
@@ -9618,7 +9619,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>62</v>
@@ -9640,7 +9641,7 @@
         <v>39886</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>68</v>
@@ -9662,7 +9663,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>62</v>
@@ -9684,7 +9685,7 @@
         <v>39899</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>62</v>
@@ -9706,7 +9707,7 @@
         <v>39890</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>175</v>
@@ -9726,7 +9727,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f>EDATE(A245,1)</f>
         <v>39904</v>
@@ -9751,7 +9752,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f t="shared" si="8"/>
         <v>39934</v>
@@ -9778,7 +9779,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>62</v>
@@ -9798,7 +9799,7 @@
         <v>39955</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>62</v>
@@ -9818,7 +9819,7 @@
         <v>39960</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>180</v>
@@ -9838,7 +9839,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f>EDATE(A252,1)</f>
         <v>39965</v>
@@ -9865,7 +9866,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>181</v>
@@ -9885,7 +9886,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <f>EDATE(A256,1)</f>
         <v>39995</v>
@@ -9910,7 +9911,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <f t="shared" si="8"/>
         <v>40026</v>
@@ -9937,7 +9938,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>62</v>
@@ -9959,7 +9960,7 @@
         <v>40042</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>62</v>
@@ -9981,7 +9982,7 @@
         <v>40051</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>62</v>
@@ -10003,7 +10004,7 @@
         <v>40057</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>185</v>
@@ -10023,7 +10024,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="51"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A259,1)</f>
         <v>40057</v>
@@ -10050,7 +10051,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>62</v>
@@ -10072,7 +10073,7 @@
         <v>40081</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>187</v>
@@ -10092,7 +10093,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f>EDATE(A264,1)</f>
         <v>40087</v>
@@ -10119,7 +10120,7 @@
         <v>40087</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>62</v>
@@ -10141,7 +10142,7 @@
         <v>40093</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>68</v>
@@ -10163,7 +10164,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>92</v>
@@ -10185,7 +10186,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>188</v>
@@ -10205,7 +10206,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f>EDATE(A267,1)</f>
         <v>40118</v>
@@ -10232,7 +10233,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>191</v>
@@ -10252,7 +10253,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <f>EDATE(A272,1)</f>
         <v>40148</v>
@@ -10279,7 +10280,7 @@
         <v>40151</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>68</v>
@@ -10298,7 +10299,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>87</v>
@@ -10315,7 +10316,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>106</v>
@@ -10334,7 +10335,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="48" t="s">
         <v>193</v>
       </c>
@@ -10349,7 +10350,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <f>EDATE(A274,1)</f>
         <v>40179</v>
@@ -10374,7 +10375,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>104</v>
@@ -10393,7 +10394,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>92</v>
@@ -10412,7 +10413,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>68</v>
@@ -10431,7 +10432,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>92</v>
@@ -10450,7 +10451,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>87</v>
@@ -10467,7 +10468,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>199</v>
@@ -10484,7 +10485,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f>EDATE(A279,1)</f>
         <v>40210</v>
@@ -10509,7 +10510,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>62</v>
@@ -10528,7 +10529,7 @@
         <v>40224</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>205</v>
@@ -10545,7 +10546,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f>EDATE(A286,1)</f>
         <v>40238</v>
@@ -10572,7 +10573,7 @@
         <v>40249</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>62</v>
@@ -10591,7 +10592,7 @@
         <v>40254</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>104</v>
@@ -10613,7 +10614,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>207</v>
@@ -10630,7 +10631,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <f>EDATE(A289,1)</f>
         <v>40269</v>
@@ -10655,7 +10656,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>87</v>
@@ -10672,7 +10673,7 @@
         <v>40296</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>68</v>
@@ -10689,7 +10690,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>208</v>
@@ -10706,7 +10707,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <f>EDATE(A293,1)</f>
         <v>40299</v>
@@ -10733,7 +10734,7 @@
         <v>40322</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>211</v>
@@ -10753,7 +10754,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <f>EDATE(A297,1)</f>
         <v>40330</v>
@@ -10780,7 +10781,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>62</v>
@@ -10802,7 +10803,7 @@
         <v>40345</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>62</v>
@@ -10824,7 +10825,7 @@
         <v>40353</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>213</v>
@@ -10844,7 +10845,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="51"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <f>EDATE(A299,1)</f>
         <v>40360</v>
@@ -10871,7 +10872,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>92</v>
@@ -10893,7 +10894,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>216</v>
@@ -10913,7 +10914,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <f>EDATE(A303,1)</f>
         <v>40391</v>
@@ -10940,7 +10941,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>62</v>
@@ -10959,7 +10960,7 @@
         <v>40414</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>218</v>
@@ -10976,7 +10977,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <f>EDATE(A306,1)</f>
         <v>40422</v>
@@ -11005,7 +11006,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>220</v>
@@ -11024,7 +11025,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>222</v>
@@ -11041,7 +11042,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <f>EDATE(A309,1)</f>
         <v>40452</v>
@@ -11070,7 +11071,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>220</v>
@@ -11089,7 +11090,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>226</v>
@@ -11106,7 +11107,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <f>EDATE(A312,1)</f>
         <v>40483</v>
@@ -11135,7 +11136,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>220</v>
@@ -11154,7 +11155,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>229</v>
@@ -11171,7 +11172,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f>EDATE(A315,1)</f>
         <v>40513</v>
@@ -11196,7 +11197,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="48" t="s">
         <v>231</v>
       </c>
@@ -11214,7 +11215,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <f>EDATE(A318,1)</f>
         <v>40544</v>
@@ -11239,7 +11240,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>234</v>
@@ -11259,7 +11260,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f>EDATE(A320,1)</f>
         <v>40575</v>
@@ -11284,7 +11285,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>236</v>
@@ -11304,7 +11305,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <f>EDATE(A322,1)</f>
         <v>40603</v>
@@ -11329,7 +11330,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f t="shared" si="8"/>
         <v>40634</v>
@@ -11354,7 +11355,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <f t="shared" si="8"/>
         <v>40664</v>
@@ -11379,7 +11380,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <f>EDATE(A326,1)</f>
         <v>40695</v>
@@ -11406,7 +11407,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>240</v>
@@ -11426,7 +11427,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f>EDATE(A327,1)</f>
         <v>40725</v>
@@ -11451,7 +11452,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <f t="shared" si="8"/>
         <v>40756</v>
@@ -11476,7 +11477,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <f t="shared" si="8"/>
         <v>40787</v>
@@ -11501,7 +11502,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <f t="shared" si="8"/>
         <v>40817</v>
@@ -11526,7 +11527,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f t="shared" si="8"/>
         <v>40848</v>
@@ -11553,7 +11554,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>247</v>
@@ -11573,7 +11574,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f>EDATE(A333,1)</f>
         <v>40878</v>
@@ -11598,7 +11599,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="48" t="s">
         <v>249</v>
       </c>
@@ -11616,7 +11617,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <f>EDATE(A335,1)</f>
         <v>40909</v>
@@ -11643,7 +11644,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>250</v>
@@ -11660,7 +11661,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>251</v>
@@ -11677,7 +11678,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <f>EDATE(A337,1)</f>
         <v>40940</v>
@@ -11702,7 +11703,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <f t="shared" si="8"/>
         <v>40969</v>
@@ -11727,7 +11728,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <f t="shared" si="8"/>
         <v>41000</v>
@@ -11752,7 +11753,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <f t="shared" si="8"/>
         <v>41030</v>
@@ -11779,7 +11780,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>92</v>
@@ -11798,7 +11799,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>254</v>
@@ -11815,7 +11816,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <f>EDATE(A343,1)</f>
         <v>41061</v>
@@ -11840,7 +11841,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <f t="shared" si="8"/>
         <v>41091</v>
@@ -11867,7 +11868,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>141</v>
@@ -11884,7 +11885,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>92</v>
@@ -11903,7 +11904,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>263</v>
@@ -11920,7 +11921,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <f>EDATE(A347,1)</f>
         <v>41122</v>
@@ -11945,7 +11946,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40">
         <f t="shared" si="8"/>
         <v>41153</v>
@@ -11970,7 +11971,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>266</v>
@@ -11990,7 +11991,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <f>EDATE(A352,1)</f>
         <v>41183</v>
@@ -12015,7 +12016,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
         <f t="shared" ref="A355:A356" si="9">EDATE(A354,1)</f>
         <v>41214</v>
@@ -12036,7 +12037,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <f t="shared" si="9"/>
         <v>41244</v>
@@ -12061,7 +12062,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="48" t="s">
         <v>269</v>
       </c>
@@ -12079,7 +12080,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <f>EDATE(A356,1)</f>
         <v>41275</v>
@@ -12104,7 +12105,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <f t="shared" ref="A359:A431" si="10">EDATE(A358,1)</f>
         <v>41306</v>
@@ -12129,7 +12130,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>68</v>
@@ -12151,7 +12152,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>92</v>
@@ -12173,7 +12174,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>274</v>
@@ -12193,7 +12194,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <f>EDATE(A359,1)</f>
         <v>41334</v>
@@ -12218,7 +12219,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <f t="shared" si="10"/>
         <v>41365</v>
@@ -12245,7 +12246,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>278</v>
@@ -12265,7 +12266,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <f>EDATE(A364,1)</f>
         <v>41395</v>
@@ -12288,7 +12289,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>279</v>
@@ -12308,7 +12309,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <f>EDATE(A366,1)</f>
         <v>41426</v>
@@ -12335,7 +12336,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>281</v>
@@ -12355,7 +12356,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <f>EDATE(A368,1)</f>
         <v>41456</v>
@@ -12380,7 +12381,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <f t="shared" si="10"/>
         <v>41487</v>
@@ -12405,7 +12406,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <f t="shared" si="10"/>
         <v>41518</v>
@@ -12430,7 +12431,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <f t="shared" si="10"/>
         <v>41548</v>
@@ -12455,7 +12456,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f t="shared" si="10"/>
         <v>41579</v>
@@ -12480,7 +12481,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <f t="shared" si="10"/>
         <v>41609</v>
@@ -12505,7 +12506,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="48" t="s">
         <v>282</v>
       </c>
@@ -12523,7 +12524,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f>EDATE(A375,1)</f>
         <v>41640</v>
@@ -12548,7 +12549,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <f t="shared" si="10"/>
         <v>41671</v>
@@ -12573,7 +12574,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <f t="shared" si="10"/>
         <v>41699</v>
@@ -12598,7 +12599,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <f t="shared" si="10"/>
         <v>41730</v>
@@ -12623,7 +12624,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <f t="shared" si="10"/>
         <v>41760</v>
@@ -12648,7 +12649,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <f t="shared" si="10"/>
         <v>41791</v>
@@ -12673,7 +12674,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <f t="shared" si="10"/>
         <v>41821</v>
@@ -12698,7 +12699,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <f t="shared" si="10"/>
         <v>41852</v>
@@ -12723,7 +12724,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <f t="shared" si="10"/>
         <v>41883</v>
@@ -12748,7 +12749,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <f t="shared" si="10"/>
         <v>41913</v>
@@ -12773,7 +12774,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <f t="shared" si="10"/>
         <v>41944</v>
@@ -12798,7 +12799,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <f t="shared" si="10"/>
         <v>41974</v>
@@ -12823,7 +12824,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>304</v>
@@ -12845,7 +12846,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="48" t="s">
         <v>294</v>
       </c>
@@ -12863,7 +12864,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <f>EDATE(A388,1)</f>
         <v>42005</v>
@@ -12888,7 +12889,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>62</v>
@@ -12910,7 +12911,7 @@
         <v>42019</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <f>EDATE(A391,1)</f>
         <v>42036</v>
@@ -12935,7 +12936,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>68</v>
@@ -12957,7 +12958,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <f>EDATE(A393,1)</f>
         <v>42064</v>
@@ -12982,7 +12983,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <f t="shared" si="10"/>
         <v>42095</v>
@@ -13007,7 +13008,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>68</v>
@@ -13029,7 +13030,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <f>EDATE(A396,1)</f>
         <v>42125</v>
@@ -13054,7 +13055,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>75</v>
@@ -13076,7 +13077,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <f>EDATE(A398,1)</f>
         <v>42156</v>
@@ -13101,7 +13102,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>104</v>
@@ -13123,7 +13124,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f>EDATE(A400,1)</f>
         <v>42186</v>
@@ -13148,7 +13149,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f t="shared" si="10"/>
         <v>42217</v>
@@ -13173,7 +13174,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>45</v>
@@ -13195,7 +13196,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <f>EDATE(A403,1)</f>
         <v>42248</v>
@@ -13220,7 +13221,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>320</v>
@@ -13242,7 +13243,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <f>EDATE(A405,1)</f>
         <v>42278</v>
@@ -13267,7 +13268,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>62</v>
@@ -13289,7 +13290,7 @@
         <v>42311</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <f>EDATE(A407,1)</f>
         <v>42309</v>
@@ -13314,7 +13315,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>324</v>
@@ -13336,7 +13337,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <f>EDATE(A409,1)</f>
         <v>42339</v>
@@ -13361,7 +13362,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="48" t="s">
         <v>302</v>
       </c>
@@ -13379,7 +13380,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <f>EDATE(A411,1)</f>
         <v>42370</v>
@@ -13404,7 +13405,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>75</v>
@@ -13426,7 +13427,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <f>EDATE(A413,1)</f>
         <v>42401</v>
@@ -13451,7 +13452,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>92</v>
@@ -13473,7 +13474,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>62</v>
@@ -13495,7 +13496,7 @@
         <v>42418</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <f>EDATE(A415,1)</f>
         <v>42430</v>
@@ -13520,7 +13521,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <f>EDATE(A418,1)</f>
         <v>42461</v>
@@ -13545,7 +13546,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <f t="shared" si="10"/>
         <v>42491</v>
@@ -13570,7 +13571,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <f t="shared" si="10"/>
         <v>42522</v>
@@ -13595,7 +13596,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <f t="shared" si="10"/>
         <v>42552</v>
@@ -13620,7 +13621,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <f t="shared" si="10"/>
         <v>42583</v>
@@ -13645,7 +13646,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
         <v>337</v>
@@ -13665,7 +13666,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f>EDATE(A423,1)</f>
         <v>42614</v>
@@ -13690,7 +13691,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <f t="shared" si="10"/>
         <v>42644</v>
@@ -13717,7 +13718,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>62</v>
@@ -13739,7 +13740,7 @@
         <v>42654</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>68</v>
@@ -13761,7 +13762,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>341</v>
@@ -13781,7 +13782,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <f>EDATE(A426,1)</f>
         <v>42675</v>
@@ -13806,7 +13807,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <f t="shared" si="10"/>
         <v>42705</v>
@@ -13831,7 +13832,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="48" t="s">
         <v>303</v>
       </c>
@@ -13849,7 +13850,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <f>EDATE(A431,1)</f>
         <v>42736</v>
@@ -13870,7 +13871,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <f>EDATE(A433,1)</f>
         <v>42767</v>
@@ -13895,7 +13896,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <f t="shared" ref="A435:A452" si="11">EDATE(A434,1)</f>
         <v>42795</v>
@@ -13920,7 +13921,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <f t="shared" si="11"/>
         <v>42826</v>
@@ -13947,7 +13948,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>87</v>
@@ -13964,7 +13965,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40"/>
       <c r="B438" s="20" t="s">
         <v>92</v>
@@ -13983,7 +13984,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>141</v>
@@ -14000,7 +14001,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>350</v>
@@ -14017,7 +14018,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <f>EDATE(A436,1)</f>
         <v>42856</v>
@@ -14042,7 +14043,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <f t="shared" si="11"/>
         <v>42887</v>
@@ -14069,7 +14070,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>62</v>
@@ -14088,7 +14089,7 @@
         <v>42916</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>353</v>
@@ -14105,7 +14106,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <f>EDATE(A442,1)</f>
         <v>42917</v>
@@ -14130,7 +14131,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <f t="shared" si="11"/>
         <v>42948</v>
@@ -14155,7 +14156,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <f t="shared" si="11"/>
         <v>42979</v>
@@ -14182,7 +14183,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>62</v>
@@ -14204,7 +14205,7 @@
         <v>43045</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>357</v>
@@ -14224,7 +14225,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="51"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <f>EDATE(A447,1)</f>
         <v>43009</v>
@@ -14249,7 +14250,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <f>EDATE(A450,1)</f>
         <v>43040</v>
@@ -14270,7 +14271,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <f t="shared" si="11"/>
         <v>43070</v>
@@ -14291,7 +14292,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="48" t="s">
         <v>359</v>
       </c>
@@ -14309,7 +14310,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <f>EDATE(A452,1)</f>
         <v>43101</v>
@@ -14336,7 +14337,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>62</v>
@@ -14356,7 +14357,7 @@
         <v>43108</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>63</v>
@@ -14376,7 +14377,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <f>EDATE(A454,1)</f>
         <v>43132</v>
@@ -14403,7 +14404,7 @@
         <v>43150</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <f>EDATE(A457,1)</f>
         <v>43160</v>
@@ -14424,7 +14425,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <f t="shared" ref="A459:A460" si="12">EDATE(A458,1)</f>
         <v>43191</v>
@@ -14445,7 +14446,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <f t="shared" si="12"/>
         <v>43221</v>
@@ -14472,7 +14473,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>62</v>
@@ -14494,7 +14495,7 @@
         <v>43292</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>363</v>
@@ -14514,7 +14515,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <f>EDATE(A460,1)</f>
         <v>43252</v>
@@ -14539,7 +14540,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <f>EDATE(A463,1)</f>
         <v>43282</v>
@@ -14564,7 +14565,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <f>EDATE(A464,1)</f>
         <v>43313</v>
@@ -14589,7 +14590,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <f t="shared" ref="A466:A470" si="13">EDATE(A465,1)</f>
         <v>43344</v>
@@ -14614,7 +14615,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <f t="shared" si="13"/>
         <v>43374</v>
@@ -14639,7 +14640,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
       <c r="B468" s="52" t="s">
         <v>386</v>
@@ -14659,7 +14660,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <f>EDATE(A467,1)</f>
         <v>43405</v>
@@ -14684,7 +14685,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <f t="shared" si="13"/>
         <v>43435</v>
@@ -14709,7 +14710,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="48" t="s">
         <v>371</v>
       </c>
@@ -14727,7 +14728,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <f>EDATE(A470,1)</f>
         <v>43466</v>
@@ -14748,7 +14749,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <f>EDATE(A472,1)</f>
         <v>43497</v>
@@ -14773,7 +14774,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>87</v>
@@ -14793,7 +14794,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>141</v>
@@ -14813,7 +14814,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <f>EDATE(A473,1)</f>
         <v>43525</v>
@@ -14838,7 +14839,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <f t="shared" ref="A477:A484" si="14">EDATE(A476,1)</f>
         <v>43556</v>
@@ -14865,7 +14866,7 @@
         <v>43560</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>376</v>
@@ -14883,12 +14884,12 @@
       <c r="H478" s="39"/>
       <c r="I478" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>59.958999999999889</v>
+        <v>60.208999999999889</v>
       </c>
       <c r="J478" s="11"/>
       <c r="K478" s="51"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <f>EDATE(A477,1)</f>
         <v>43586</v>
@@ -14913,7 +14914,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <f t="shared" si="14"/>
         <v>43617</v>
@@ -14938,7 +14939,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <f t="shared" si="14"/>
         <v>43647</v>
@@ -14963,7 +14964,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <f t="shared" si="14"/>
         <v>43678</v>
@@ -14988,7 +14989,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <f t="shared" si="14"/>
         <v>43709</v>
@@ -15013,7 +15014,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <f t="shared" si="14"/>
         <v>43739</v>
@@ -15038,7 +15039,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40"/>
       <c r="B485" s="20" t="s">
         <v>383</v>
@@ -15058,7 +15059,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="49"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <f>EDATE(A484,1)</f>
         <v>43770</v>
@@ -15083,7 +15084,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <f>EDATE(A486,1)</f>
         <v>43800</v>
@@ -15108,7 +15109,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40"/>
       <c r="B488" s="20" t="s">
         <v>388</v>
@@ -15128,7 +15129,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>389</v>
@@ -15148,7 +15149,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="48" t="s">
         <v>391</v>
       </c>
@@ -15166,7 +15167,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <f>EDATE(A487,1)</f>
         <v>43831</v>
@@ -15191,7 +15192,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>63</v>
@@ -15211,7 +15212,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>395</v>
@@ -15231,7 +15232,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="52"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>92</v>
@@ -15253,7 +15254,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <f>EDATE(A491,1)</f>
         <v>43862</v>
@@ -15278,7 +15279,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <f t="shared" ref="A496:A504" si="15">EDATE(A495,1)</f>
         <v>43891</v>
@@ -15299,7 +15300,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <f t="shared" si="15"/>
         <v>43922</v>
@@ -15320,7 +15321,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <f t="shared" si="15"/>
         <v>43952</v>
@@ -15341,7 +15342,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <f t="shared" si="15"/>
         <v>43983</v>
@@ -15362,7 +15363,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <f t="shared" si="15"/>
         <v>44013</v>
@@ -15383,7 +15384,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <f t="shared" si="15"/>
         <v>44044</v>
@@ -15404,7 +15405,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <f t="shared" si="15"/>
         <v>44075</v>
@@ -15425,7 +15426,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <f>EDATE(A502,1)</f>
         <v>44105</v>
@@ -15446,7 +15447,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <f t="shared" si="15"/>
         <v>44136</v>
@@ -15467,7 +15468,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <f>EDATE(A504,1)</f>
         <v>44166</v>
@@ -15492,7 +15493,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="48" t="s">
         <v>398</v>
       </c>
@@ -15510,7 +15511,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <f>EDATE(A505,1)</f>
         <v>44197</v>
@@ -15531,7 +15532,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <f>EDATE(A507,1)</f>
         <v>44228</v>
@@ -15552,7 +15553,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <f t="shared" ref="A509:A518" si="16">EDATE(A508,1)</f>
         <v>44256</v>
@@ -15573,7 +15574,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <f t="shared" si="16"/>
         <v>44287</v>
@@ -15594,7 +15595,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <f t="shared" si="16"/>
         <v>44317</v>
@@ -15615,7 +15616,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <f t="shared" si="16"/>
         <v>44348</v>
@@ -15636,7 +15637,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <f t="shared" si="16"/>
         <v>44378</v>
@@ -15657,7 +15658,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <f t="shared" si="16"/>
         <v>44409</v>
@@ -15678,7 +15679,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <f t="shared" si="16"/>
         <v>44440</v>
@@ -15699,7 +15700,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <f t="shared" si="16"/>
         <v>44470</v>
@@ -15720,7 +15721,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <f t="shared" si="16"/>
         <v>44501</v>
@@ -15741,7 +15742,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <f t="shared" si="16"/>
         <v>44531</v>
@@ -15766,7 +15767,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>47</v>
@@ -15786,7 +15787,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="48" t="s">
         <v>400</v>
       </c>
@@ -15804,7 +15805,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <f>EDATE(A518,1)</f>
         <v>44562</v>
@@ -15825,7 +15826,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <f>EDATE(A521,1)</f>
         <v>44593</v>
@@ -15846,7 +15847,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <f t="shared" ref="A523:A528" si="17">EDATE(A522,1)</f>
         <v>44621</v>
@@ -15867,7 +15868,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <f t="shared" si="17"/>
         <v>44652</v>
@@ -15894,7 +15895,7 @@
         <v>44665</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>62</v>
@@ -15913,7 +15914,7 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <f>EDATE(A524,1)</f>
         <v>44682</v>
@@ -15934,7 +15935,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <f t="shared" si="17"/>
         <v>44713</v>
@@ -15955,7 +15956,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <f t="shared" si="17"/>
         <v>44743</v>
@@ -15982,7 +15983,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>44774</v>
       </c>
@@ -16002,7 +16003,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>44805</v>
       </c>
@@ -16022,7 +16023,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>44835</v>
       </c>
@@ -16048,7 +16049,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40"/>
       <c r="B532" s="20" t="s">
         <v>389</v>
@@ -16070,7 +16071,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40">
         <v>44866</v>
       </c>
@@ -16090,7 +16091,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>44896</v>
       </c>
@@ -16114,7 +16115,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="48" t="s">
         <v>404</v>
       </c>
@@ -16132,7 +16133,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>44927</v>
       </c>
@@ -16158,7 +16159,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>68</v>
@@ -16180,7 +16181,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>44958</v>
       </c>
@@ -16206,7 +16207,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40"/>
       <c r="B539" s="20" t="s">
         <v>87</v>
@@ -16226,7 +16227,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <v>44986</v>
       </c>
@@ -16252,7 +16253,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40"/>
       <c r="B541" s="20" t="s">
         <v>68</v>
@@ -16274,7 +16275,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>45017</v>
       </c>
@@ -16300,7 +16301,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <v>45047</v>
       </c>
@@ -16326,20 +16327,22 @@
         <v>414</v>
       </c>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>45078</v>
       </c>
       <c r="B544" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C544" s="13"/>
+      <c r="C544" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D544" s="39"/>
       <c r="E544" s="9"/>
       <c r="F544" s="20"/>
-      <c r="G544" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G544" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H544" s="39">
         <v>1</v>
@@ -16350,7 +16353,7 @@
         <v>45084</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>62</v>
@@ -16372,11 +16375,11 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A546" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B546" s="20"/>
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A546" s="40"/>
+      <c r="B546" s="20" t="s">
+        <v>87</v>
+      </c>
       <c r="C546" s="13"/>
       <c r="D546" s="39"/>
       <c r="E546" s="9"/>
@@ -16388,13 +16391,15 @@
       <c r="H546" s="39"/>
       <c r="I546" s="9"/>
       <c r="J546" s="11"/>
-      <c r="K546" s="20"/>
-    </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A547" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B547" s="20"/>
+      <c r="K546" s="51">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A547" s="40"/>
+      <c r="B547" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="C547" s="13"/>
       <c r="D547" s="39"/>
       <c r="E547" s="9"/>
@@ -16403,14 +16408,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H547" s="39"/>
+      <c r="H547" s="39">
+        <v>1</v>
+      </c>
       <c r="I547" s="9"/>
       <c r="J547" s="11"/>
-      <c r="K547" s="20"/>
-    </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K547" s="51">
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -16426,9 +16435,9 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -16444,9 +16453,9 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -16462,9 +16471,9 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -16480,9 +16489,9 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -16498,9 +16507,9 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -16516,9 +16525,9 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -16534,9 +16543,9 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -16552,9 +16561,9 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -16570,9 +16579,9 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -16588,9 +16597,9 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -16606,9 +16615,9 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -16624,9 +16633,9 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -16642,9 +16651,9 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -16660,9 +16669,9 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -16678,9 +16687,9 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -16696,9 +16705,9 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -16714,9 +16723,9 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16732,9 +16741,9 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -16750,9 +16759,9 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -16768,9 +16777,9 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16786,9 +16795,9 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16804,8 +16813,10 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A570" s="40"/>
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A570" s="40">
+        <v>45778</v>
+      </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
       <c r="D570" s="39"/>
@@ -16820,8 +16831,10 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A571" s="40"/>
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A571" s="40">
+        <v>45809</v>
+      </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
       <c r="D571" s="39"/>
@@ -16836,7 +16849,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16852,7 +16865,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16868,7 +16881,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -16884,7 +16897,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -16900,7 +16913,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -16916,7 +16929,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16932,7 +16945,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16948,7 +16961,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -16964,21 +16977,53 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A580" s="41"/>
-      <c r="B580" s="15"/>
-      <c r="C580" s="42"/>
-      <c r="D580" s="43"/>
-      <c r="E580" s="50"/>
-      <c r="F580" s="15"/>
-      <c r="G580" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H580" s="43"/>
-      <c r="I580" s="50"/>
-      <c r="J580" s="12"/>
-      <c r="K580" s="15"/>
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A580" s="40"/>
+      <c r="B580" s="20"/>
+      <c r="C580" s="13"/>
+      <c r="D580" s="39"/>
+      <c r="E580" s="9"/>
+      <c r="F580" s="20"/>
+      <c r="G580" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H580" s="39"/>
+      <c r="I580" s="9"/>
+      <c r="J580" s="11"/>
+      <c r="K580" s="20"/>
+    </row>
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A581" s="40"/>
+      <c r="B581" s="20"/>
+      <c r="C581" s="13"/>
+      <c r="D581" s="39"/>
+      <c r="E581" s="9"/>
+      <c r="F581" s="20"/>
+      <c r="G581" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H581" s="39"/>
+      <c r="I581" s="9"/>
+      <c r="J581" s="11"/>
+      <c r="K581" s="20"/>
+    </row>
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A582" s="41"/>
+      <c r="B582" s="15"/>
+      <c r="C582" s="42"/>
+      <c r="D582" s="43"/>
+      <c r="E582" s="50"/>
+      <c r="F582" s="15"/>
+      <c r="G582" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H582" s="43"/>
+      <c r="I582" s="50"/>
+      <c r="J582" s="12"/>
+      <c r="K582" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16995,10 +17040,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17024,7 +17069,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -17032,21 +17077,21 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
@@ -17059,7 +17104,7 @@
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17088,7 +17133,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3"/>
@@ -17112,17 +17157,17 @@
         <v>1.083</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -17143,7 +17188,7 @@
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -17170,7 +17215,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17196,7 +17241,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -17222,7 +17267,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -17248,7 +17293,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -17274,7 +17319,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -17300,7 +17345,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -17326,7 +17371,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -17352,7 +17397,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -17372,7 +17417,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -17392,7 +17437,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -17412,7 +17457,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -17433,7 +17478,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17454,7 +17499,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17475,7 +17520,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17496,7 +17541,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17517,7 +17562,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17538,7 +17583,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17559,7 +17604,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17580,7 +17625,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17601,7 +17646,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17622,7 +17667,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17643,7 +17688,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -17664,7 +17709,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17685,7 +17730,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17706,7 +17751,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17727,7 +17772,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17748,7 +17793,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17769,7 +17814,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17790,7 +17835,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17811,7 +17856,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17832,7 +17877,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17841,7 +17886,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17850,7 +17895,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17859,7 +17904,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17868,7 +17913,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17877,7 +17922,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17886,7 +17931,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17895,7 +17940,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17904,7 +17949,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17913,7 +17958,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17922,7 +17967,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17931,7 +17976,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17940,7 +17985,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17949,7 +17994,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17958,7 +18003,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17967,7 +18012,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17976,7 +18021,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17985,7 +18030,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17994,7 +18039,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18003,7 +18048,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18012,7 +18057,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18021,7 +18066,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18030,7 +18075,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18039,7 +18084,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18048,7 +18093,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18057,7 +18102,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18066,7 +18111,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18075,7 +18120,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18084,7 +18129,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18093,7 +18138,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
